--- a/data/20251011_book_record.xlsx
+++ b/data/20251011_book_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
   <si>
     <t>title</t>
   </si>
@@ -25,6 +25,15 @@
     <t>genre</t>
   </si>
   <si>
+    <t>language_original</t>
+  </si>
+  <si>
+    <t>language_read</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
     <t>dates_read</t>
   </si>
   <si>
@@ -40,7 +49,13 @@
     <t>Philosophy</t>
   </si>
   <si>
-    <t>The Social Contract: Man Was Born Free, and He Is Everywhere in Chains</t>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>The Social Contract</t>
   </si>
   <si>
     <t>Jean-Jacques Rousseau</t>
@@ -49,6 +64,9 @@
     <t>France</t>
   </si>
   <si>
+    <t>French</t>
+  </si>
+  <si>
     <t>Architect: The Work of the Pritzker Prize Laureates in Their Own Words</t>
   </si>
   <si>
@@ -70,6 +88,9 @@
     <t>Germany</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
     <t>Critique of Pure Reason</t>
   </si>
   <si>
@@ -82,6 +103,9 @@
     <t>Greece</t>
   </si>
   <si>
+    <t>Ancient Greek</t>
+  </si>
+  <si>
     <t>Living in Greece</t>
   </si>
   <si>
@@ -109,10 +133,10 @@
     <t>Critique of Judgment</t>
   </si>
   <si>
-    <t>Emile: Or on Education</t>
-  </si>
-  <si>
-    <t>Romanesque: Architecture. Sculpture. Painting.</t>
+    <t>Emile: Or Treatise on Education</t>
+  </si>
+  <si>
+    <t>Romanesque: Architecture. Sculpture. Painting</t>
   </si>
   <si>
     <t>Rolf Toman</t>
@@ -151,6 +175,9 @@
     <t>Poland</t>
   </si>
   <si>
+    <t>Latin</t>
+  </si>
+  <si>
     <t>Discourse on the Origin of Inequality</t>
   </si>
   <si>
@@ -229,7 +256,7 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>Sophie's World: A Novel about the History of Philosophy</t>
+    <t>Sophie's World</t>
   </si>
   <si>
     <t>Jostein Gaarder</t>
@@ -241,6 +268,9 @@
     <t>Philosophy, History</t>
   </si>
   <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
     <t>Culture and Value</t>
   </si>
   <si>
@@ -259,6 +289,9 @@
     <t>Denmark</t>
   </si>
   <si>
+    <t>Danish</t>
+  </si>
+  <si>
     <t>'Nature and the Greeks' and 'Science and Humanism'</t>
   </si>
   <si>
@@ -274,7 +307,7 @@
     <t>Albert Camus</t>
   </si>
   <si>
-    <t>What Is Life? with Mind and Matter and Autobiographical Sketches</t>
+    <t>What Is Life?</t>
   </si>
   <si>
     <t>Science, Philosophy</t>
@@ -295,7 +328,7 @@
     <t>Nicholas Fearn</t>
   </si>
   <si>
-    <t>Philosophical Tales: Being an Alternative History Revealing the Characters, the Plots, and the Hidden Scenes That Make Up the True Story of</t>
+    <t>Philosophical Tales</t>
   </si>
   <si>
     <t>Martin Cohen</t>
@@ -328,10 +361,7 @@
     <t>Alain de Botton</t>
   </si>
   <si>
-    <t>时间简史</t>
-  </si>
-  <si>
-    <t>Stephen Hawking, 史蒂芬·霍金</t>
+    <t>A Brief History of Time</t>
   </si>
   <si>
     <t>The Poverty of Historicism</t>
@@ -358,6 +388,9 @@
     <t>Laozi</t>
   </si>
   <si>
+    <t>Ancient Chinese</t>
+  </si>
+  <si>
     <t>Why War? Open Letters Between Einstein and Freud</t>
   </si>
   <si>
@@ -448,6 +481,9 @@
     <t>Sociology, Psychology</t>
   </si>
   <si>
+    <t>Spanish</t>
+  </si>
+  <si>
     <t>Confessions</t>
   </si>
   <si>
@@ -523,7 +559,7 @@
     <t>The Dark Forest</t>
   </si>
   <si>
-    <t>Cixin Liu</t>
+    <t>Liu Cixin</t>
   </si>
   <si>
     <t>Global Catastrophic Risks</t>
@@ -604,6 +640,9 @@
     <t>Israel</t>
   </si>
   <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
     <t>The Selfish Gene</t>
   </si>
   <si>
@@ -688,7 +727,7 @@
     <t>South Africa</t>
   </si>
   <si>
-    <t>Natural Goodness (Paperback)</t>
+    <t>Natural Goodness</t>
   </si>
   <si>
     <t>Philippa Foot</t>
@@ -739,7 +778,7 @@
     <t>Death's End</t>
   </si>
   <si>
-    <t>The End of Power: From Boardrooms to Battlefields and Churches to States, Why Being in Charge Isn't What It Used to Be</t>
+    <t>The End of Power</t>
   </si>
   <si>
     <t>Moisés Naím</t>
@@ -751,7 +790,7 @@
     <t>Sociology, History</t>
   </si>
   <si>
-    <t>Rational Ritual: Culture, Coordination, and Common Knowledge</t>
+    <t>Rational Ritual</t>
   </si>
   <si>
     <t>Michael Suk-Young Chwe</t>
@@ -760,7 +799,10 @@
     <t>On Certainty</t>
   </si>
   <si>
-    <t>The Structure of Scientific Revolutions: 50th Anniversary Edition</t>
+    <t>German, English</t>
+  </si>
+  <si>
+    <t>The Structure of Scientific Revolutions</t>
   </si>
   <si>
     <t>Thomas S. Kuhn</t>
@@ -790,13 +832,16 @@
     <t>Ted Chiang</t>
   </si>
   <si>
+    <t>Science Fiction, Anthology</t>
+  </si>
+  <si>
     <t>Chaos: A Very Short Introduction</t>
   </si>
   <si>
     <t>Leonard Smith</t>
   </si>
   <si>
-    <t>Voices from Chernobyl: The Oral History of a Nuclear Disaster</t>
+    <t>Voices from Chernobyl</t>
   </si>
   <si>
     <t>Svetlana Alexiévich</t>
@@ -805,7 +850,10 @@
     <t>Ukraine, Belarus</t>
   </si>
   <si>
-    <t>Secondhand Time: The Last of the Soviets</t>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Secondhand Time</t>
   </si>
   <si>
     <t>Nordic Light: Modern Scandinavian Architecture</t>
@@ -829,7 +877,7 @@
     <t>Michael Chabon</t>
   </si>
   <si>
-    <t>The Motorcycle Diaries: Notes on a Latin American Journey</t>
+    <t>The Motorcycle Diaries</t>
   </si>
   <si>
     <t>Ernesto Che Guevara</t>
@@ -841,7 +889,7 @@
     <t>The Genealogy of Morals</t>
   </si>
   <si>
-    <t>The Almost Nearly Perfect People: Behind the Myth of the Scandinavian Utopia</t>
+    <t>The Almost Nearly Perfect People</t>
   </si>
   <si>
     <t>Michael Booth</t>
@@ -889,10 +937,7 @@
     <t>Slovakia, United States, United States, United States</t>
   </si>
   <si>
-    <t>球状闪电</t>
-  </si>
-  <si>
-    <t>Cixin Liu, 刘慈欣</t>
+    <t>Ball Lightning</t>
   </si>
   <si>
     <t>Fences</t>
@@ -910,7 +955,7 @@
     <t>Peter Watts</t>
   </si>
   <si>
-    <t>The Japanese Mind: Understanding Contemporary Japanese Culture</t>
+    <t>The Japanese Mind</t>
   </si>
   <si>
     <t>Roger J. Davies, Osamu Ikeno</t>
@@ -919,13 +964,13 @@
     <t>United States, Japan</t>
   </si>
   <si>
-    <t>The Consolations of the Forest: Alone in a Cabin on the Siberian Taiga</t>
+    <t>The Consolations of the Forest</t>
   </si>
   <si>
     <t>Sylvain Tesson</t>
   </si>
   <si>
-    <t>The Unwomanly Face of War: An Oral History of Women in World War II</t>
+    <t>The Unwomanly Face of War</t>
   </si>
   <si>
     <t>Zinky Boys</t>
@@ -1066,6 +1111,9 @@
     <t>Stanisław Lem</t>
   </si>
   <si>
+    <t>Polish</t>
+  </si>
+  <si>
     <t>Ringworld</t>
   </si>
   <si>
@@ -1159,7 +1207,7 @@
     <t>Lucy Kissick</t>
   </si>
   <si>
-    <t>All Tomorrows: A billion year chronicle of the myriad species and varying fortunes of Man</t>
+    <t>All Tomorrows</t>
   </si>
   <si>
     <t>Nemo Ramjet, C.M. Kösemen</t>
@@ -1180,7 +1228,10 @@
     <t>Sveriges Unga Akademi</t>
   </si>
   <si>
-    <t>Flicka försvunnen [Abridged]</t>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Flicka försvunnen (lättläst)</t>
   </si>
   <si>
     <t>Sara Lövestam</t>
@@ -1189,7 +1240,7 @@
     <t>Drama, Detective</t>
   </si>
   <si>
-    <t>Pyramiden - Lättläst</t>
+    <t>Pyramiden (lättläst)</t>
   </si>
   <si>
     <t>Henning Mankell</t>
@@ -1201,7 +1252,7 @@
     <t>Vernor Vinge</t>
   </si>
   <si>
-    <t>Anna, Hanna och Johanna</t>
+    <t>Anna, Hanna och Johanna (lättläst)</t>
   </si>
   <si>
     <t>Marianne Fredriksson</t>
@@ -1222,7 +1273,7 @@
     <t>Boris Strugatsky, Arkady Strugatsky</t>
   </si>
   <si>
-    <t>Isprinsessan</t>
+    <t>Isprinsessan (lättläst)</t>
   </si>
   <si>
     <t>Camilla Läckberg</t>
@@ -1234,7 +1285,7 @@
     <t>Jerry Pournelle, Larry Niven</t>
   </si>
   <si>
-    <t>The Female Man: The Best of the SF Masterworks</t>
+    <t>The Female Man</t>
   </si>
   <si>
     <t>Joanna Russ</t>
@@ -1261,16 +1312,13 @@
     <t>A Desolation Called Peace</t>
   </si>
   <si>
-    <t>流浪苍穹</t>
+    <t>Vagabonds</t>
   </si>
   <si>
     <t>Hao Jingfang</t>
   </si>
   <si>
-    <t>孤独深处</t>
-  </si>
-  <si>
-    <t>郝景芳</t>
+    <t>In the Depths of Loneliness</t>
   </si>
   <si>
     <t>Dawn</t>
@@ -1304,6 +1352,30 @@
   </si>
   <si>
     <t>Rose/House</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Sheri S. Tepper</t>
+  </si>
+  <si>
+    <t>You Glow in The Dark</t>
+  </si>
+  <si>
+    <t>Liliana Colanzi</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Five Ways to Forgiveness</t>
+  </si>
+  <si>
+    <t>All Systems Red</t>
+  </si>
+  <si>
+    <t>Martha Wells</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1481,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1429,6 +1501,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2511,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:H199"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2520,9 +2595,12 @@
     <col min="1" max="1" width="51.1562" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5312" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.4141" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.8125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6406" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -2541,3302 +2619,4841 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
         <v>2013</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="H3" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E5" s="6">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="5">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="E12" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="B14" t="s" s="5">
-        <v>27</v>
-      </c>
       <c r="C14" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E14" s="6">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G14" s="6">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E16" s="6">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G16" s="6">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E18" s="6">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="5">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="E19" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="5">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E20" s="6">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="5">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E21" s="6">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="5">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s" s="5">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="C22" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="F22" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="5">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E23" s="6">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="5">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E24" s="6">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="5">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="E25" s="6">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="5">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="E26" s="6">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="5">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="E27" s="6">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="5">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="E28" s="6">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="5">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E29" s="6">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="5">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="E30" s="6">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s" s="5">
+        <v>85</v>
+      </c>
+      <c r="F30" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G30" s="6">
+        <v>10</v>
+      </c>
+      <c r="H30" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="5">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E31" s="6">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E32" s="6">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="5">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E33" s="6">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="5">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="E34" s="6">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="5">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="E35" s="6">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="5">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E36" s="6">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="5">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E37" s="6">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="5">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="E38" s="6">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="5">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E39" s="6">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="5">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E40" s="6">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="5">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E41" s="6">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="5">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E42" s="6">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="5">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E43" s="6">
+        <v>46</v>
+      </c>
+      <c r="E43" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G43" s="6">
+        <v>10</v>
+      </c>
+      <c r="H43" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="5">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E44" s="6">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="5">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E45" s="6">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="5">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E46" s="6">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="5">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E47" s="6">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s" s="5">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="5">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="E48" s="6">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="5">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C49" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E49" s="6">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G49" s="6">
+        <v>10</v>
+      </c>
+      <c r="H49" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" t="s" s="5">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E50" s="6">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G50" s="7"/>
+      <c r="H50" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="5">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>126</v>
-      </c>
-      <c r="E51" s="6">
+        <v>137</v>
+      </c>
+      <c r="E51" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="5">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>129</v>
-      </c>
-      <c r="E52" s="6">
+        <v>140</v>
+      </c>
+      <c r="E52" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" t="s" s="5">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E53" s="6">
+        <v>58</v>
+      </c>
+      <c r="E53" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F53" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
       <c r="A54" t="s" s="5">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>134</v>
-      </c>
-      <c r="E54" s="6">
+        <v>145</v>
+      </c>
+      <c r="E54" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
       <c r="A55" t="s" s="5">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="E55" s="6">
+        <v>148</v>
+      </c>
+      <c r="E55" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="5">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E56" s="6">
+        <v>151</v>
+      </c>
+      <c r="E56" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
       <c r="A57" t="s" s="5">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>144</v>
-      </c>
-      <c r="E57" s="6">
+        <v>155</v>
+      </c>
+      <c r="E57" t="s" s="5">
+        <v>156</v>
+      </c>
+      <c r="F57" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
       <c r="A58" t="s" s="5">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>148</v>
-      </c>
-      <c r="E58" s="6">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s" s="5">
+        <v>54</v>
+      </c>
+      <c r="F58" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
       <c r="A59" t="s" s="5">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E59" s="6">
+      <c r="E59" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
       <c r="A60" t="s" s="5">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D60" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E60" s="6">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
       <c r="A61" t="s" s="5">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E61" s="6">
+        <v>61</v>
+      </c>
+      <c r="E61" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="62" ht="13.55" customHeight="1">
       <c r="A62" t="s" s="5">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E62" s="6">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="5">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s" s="5">
-        <v>160</v>
-      </c>
-      <c r="E63" s="6">
+        <v>172</v>
+      </c>
+      <c r="E63" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="5">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E64" s="6">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
       <c r="A65" t="s" s="5">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="E65" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F65" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
       <c r="A66" t="s" s="5">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s" s="5">
-        <v>166</v>
-      </c>
-      <c r="E66" s="6">
+        <v>178</v>
+      </c>
+      <c r="E66" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
       <c r="A67" t="s" s="5">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E67" s="6">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="5">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E68" s="6">
+        <v>61</v>
+      </c>
+      <c r="E68" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F68" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G68" s="6">
+        <v>10</v>
+      </c>
+      <c r="H68" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="69" ht="13.55" customHeight="1">
       <c r="A69" t="s" s="5">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s" s="5">
-        <v>174</v>
-      </c>
-      <c r="E69" s="6">
+        <v>186</v>
+      </c>
+      <c r="E69" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="5">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E70" s="6">
+        <v>61</v>
+      </c>
+      <c r="E70" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F70" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
       <c r="A71" t="s" s="5">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="E71" s="6">
+        <v>190</v>
+      </c>
+      <c r="E71" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
       <c r="A72" t="s" s="5">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s" s="5">
-        <v>144</v>
-      </c>
-      <c r="E72" s="6">
+        <v>155</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
       <c r="A73" t="s" s="5">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D73" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E73" s="6">
+        <v>151</v>
+      </c>
+      <c r="E73" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="5">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E74" s="6">
+        <v>46</v>
+      </c>
+      <c r="E74" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="75" ht="13.55" customHeight="1">
       <c r="A75" t="s" s="5">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D75" t="s" s="5">
-        <v>186</v>
-      </c>
-      <c r="E75" s="6">
+        <v>198</v>
+      </c>
+      <c r="E75" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="76" ht="13.55" customHeight="1">
       <c r="A76" t="s" s="5">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="E76" s="6">
+        <v>201</v>
+      </c>
+      <c r="E76" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="77" ht="13.55" customHeight="1">
       <c r="A77" t="s" s="5">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E77" s="6">
+        <v>58</v>
+      </c>
+      <c r="E77" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="78" ht="13.55" customHeight="1">
       <c r="A78" t="s" s="5">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D78" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="E78" s="6">
+        <v>201</v>
+      </c>
+      <c r="E78" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G78" s="6">
+        <v>10</v>
+      </c>
+      <c r="H78" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="79" ht="13.55" customHeight="1">
       <c r="A79" t="s" s="5">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D79" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E79" s="6">
+        <v>151</v>
+      </c>
+      <c r="E79" t="s" s="5">
+        <v>209</v>
+      </c>
+      <c r="F79" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G79" s="6">
+        <v>10</v>
+      </c>
+      <c r="H79" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="80" ht="13.55" customHeight="1">
       <c r="A80" t="s" s="5">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D80" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="E80" s="6">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="81" ht="13.55" customHeight="1">
       <c r="A81" t="s" s="5">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D81" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E81" s="6">
+        <v>46</v>
+      </c>
+      <c r="E81" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="82" ht="13.55" customHeight="1">
       <c r="A82" t="s" s="5">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E82" s="6">
+        <v>151</v>
+      </c>
+      <c r="E82" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="83" ht="13.55" customHeight="1">
       <c r="A83" t="s" s="5">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s" s="5">
-        <v>186</v>
-      </c>
-      <c r="E83" s="6">
+        <v>198</v>
+      </c>
+      <c r="E83" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="84" ht="13.55" customHeight="1">
       <c r="A84" t="s" s="5">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E84" s="6">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="85" ht="13.55" customHeight="1">
       <c r="A85" t="s" s="5">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D85" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="E85" s="6">
+        <v>99</v>
+      </c>
+      <c r="E85" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="86" ht="13.55" customHeight="1">
       <c r="A86" t="s" s="5">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E86" s="6">
+        <v>46</v>
+      </c>
+      <c r="E86" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="87" ht="13.55" customHeight="1">
       <c r="A87" t="s" s="5">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="E87" s="6">
+        <v>190</v>
+      </c>
+      <c r="E87" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="88" ht="13.55" customHeight="1">
       <c r="A88" t="s" s="5">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E88" s="6">
+        <v>151</v>
+      </c>
+      <c r="E88" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G88" s="6">
+        <v>10</v>
+      </c>
+      <c r="H88" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="89" ht="13.55" customHeight="1">
       <c r="A89" t="s" s="5">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D89" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="E89" s="6">
+        <v>190</v>
+      </c>
+      <c r="E89" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="90" ht="13.55" customHeight="1">
       <c r="A90" t="s" s="5">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s" s="5">
-        <v>174</v>
-      </c>
-      <c r="E90" s="6">
+        <v>186</v>
+      </c>
+      <c r="E90" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="91" ht="13.55" customHeight="1">
       <c r="A91" t="s" s="5">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="D91" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E91" s="6">
+        <v>46</v>
+      </c>
+      <c r="E91" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="92" ht="13.55" customHeight="1">
       <c r="A92" t="s" s="5">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E92" s="6">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="93" ht="13.55" customHeight="1">
       <c r="A93" t="s" s="5">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s" s="5">
-        <v>229</v>
-      </c>
-      <c r="E93" s="6">
+        <v>242</v>
+      </c>
+      <c r="E93" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="94" ht="13.55" customHeight="1">
       <c r="A94" t="s" s="5">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E94" s="6">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="95" ht="13.55" customHeight="1">
       <c r="A95" t="s" s="5">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="E95" s="6">
+        <v>72</v>
+      </c>
+      <c r="E95" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="96" ht="13.55" customHeight="1">
       <c r="A96" t="s" s="5">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E96" s="6">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="97" ht="13.55" customHeight="1">
       <c r="A97" t="s" s="5">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E97" s="6">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="98" ht="13.55" customHeight="1">
       <c r="A98" t="s" s="5">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D98" t="s" s="5">
-        <v>240</v>
-      </c>
-      <c r="E98" s="6">
+        <v>253</v>
+      </c>
+      <c r="E98" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="99" ht="13.55" customHeight="1">
       <c r="A99" t="s" s="5">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D99" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E99" s="6">
+        <v>61</v>
+      </c>
+      <c r="E99" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G99" s="6">
+        <v>10</v>
+      </c>
+      <c r="H99" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="100" ht="13.55" customHeight="1">
       <c r="A100" t="s" s="5">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D100" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="E100" s="6">
+        <v>258</v>
+      </c>
+      <c r="E100" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="101" ht="13.55" customHeight="1">
       <c r="A101" t="s" s="5">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D101" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E101" s="6">
+        <v>58</v>
+      </c>
+      <c r="E101" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="102" ht="13.55" customHeight="1">
       <c r="A102" t="s" s="5">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D102" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E102" s="6">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s" s="5">
+        <v>262</v>
+      </c>
+      <c r="F102" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="103" ht="13.55" customHeight="1">
       <c r="A103" t="s" s="5">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="E103" s="6">
+        <v>201</v>
+      </c>
+      <c r="E103" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="104" ht="13.55" customHeight="1">
       <c r="A104" t="s" s="5">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s" s="5">
-        <v>75</v>
-      </c>
-      <c r="E104" s="6">
+        <v>84</v>
+      </c>
+      <c r="E104" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="105" ht="13.55" customHeight="1">
       <c r="A105" t="s" s="5">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E105" s="6">
+        <v>46</v>
+      </c>
+      <c r="E105" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G105" s="7"/>
+      <c r="H105" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="106" ht="13.55" customHeight="1">
       <c r="A106" t="s" s="5">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E106" s="6">
+        <v>46</v>
+      </c>
+      <c r="E106" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="107" ht="13.55" customHeight="1">
       <c r="A107" t="s" s="5">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E107" s="6">
+        <v>273</v>
+      </c>
+      <c r="E107" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G107" s="6">
+        <v>10</v>
+      </c>
+      <c r="H107" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="108" ht="13.55" customHeight="1">
       <c r="A108" t="s" s="5">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E108" s="6">
+        <v>46</v>
+      </c>
+      <c r="E108" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="109" ht="13.55" customHeight="1">
       <c r="A109" t="s" s="5">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D109" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E109" s="6">
+        <v>151</v>
+      </c>
+      <c r="E109" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="F109" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="110" ht="13.55" customHeight="1">
       <c r="A110" t="s" s="5">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D110" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E110" s="6">
+        <v>151</v>
+      </c>
+      <c r="E110" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="F110" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G110" s="6">
+        <v>10</v>
+      </c>
+      <c r="H110" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="111" ht="13.55" customHeight="1">
       <c r="A111" t="s" s="5">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s" s="5">
-        <v>15</v>
-      </c>
-      <c r="E111" s="6">
+        <v>21</v>
+      </c>
+      <c r="E111" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="112" ht="13.55" customHeight="1">
       <c r="A112" t="s" s="5">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s" s="5">
-        <v>269</v>
-      </c>
-      <c r="E112" s="6">
+        <v>285</v>
+      </c>
+      <c r="E112" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="113" ht="13.55" customHeight="1">
       <c r="A113" t="s" s="5">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s" s="5">
-        <v>269</v>
-      </c>
-      <c r="E113" s="6">
+        <v>285</v>
+      </c>
+      <c r="E113" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="114" ht="13.55" customHeight="1">
       <c r="A114" t="s" s="5">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="D114" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="E114" s="6">
+        <v>129</v>
+      </c>
+      <c r="E114" t="s" s="5">
+        <v>156</v>
+      </c>
+      <c r="F114" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G114" s="7"/>
+      <c r="H114" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="115" ht="13.55" customHeight="1">
       <c r="A115" t="s" s="5">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="E115" s="6">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="F115" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="116" ht="13.55" customHeight="1">
       <c r="A116" t="s" s="5">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E116" s="6">
+        <v>58</v>
+      </c>
+      <c r="E116" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="117" ht="13.55" customHeight="1">
       <c r="A117" t="s" s="5">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D117" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E117" s="6">
+        <v>151</v>
+      </c>
+      <c r="E117" t="s" s="5">
+        <v>209</v>
+      </c>
+      <c r="F117" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G117" s="6">
+        <v>10</v>
+      </c>
+      <c r="H117" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="118" ht="13.55" customHeight="1">
       <c r="A118" t="s" s="5">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s" s="5">
-        <v>269</v>
-      </c>
-      <c r="E118" s="6">
+        <v>285</v>
+      </c>
+      <c r="E118" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="119" ht="13.55" customHeight="1">
       <c r="A119" t="s" s="5">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="D119" t="s" s="5">
-        <v>284</v>
-      </c>
-      <c r="E119" s="6">
+        <v>300</v>
+      </c>
+      <c r="E119" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="120" ht="13.55" customHeight="1">
       <c r="A120" t="s" s="5">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D120" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E120" s="6">
+        <v>58</v>
+      </c>
+      <c r="E120" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="121" ht="13.55" customHeight="1">
       <c r="A121" t="s" s="5">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="E121" s="6">
+        <v>190</v>
+      </c>
+      <c r="E121" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="122" ht="13.55" customHeight="1">
       <c r="A122" t="s" s="5">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="D122" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E122" s="6">
+        <v>46</v>
+      </c>
+      <c r="E122" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G122" s="7"/>
+      <c r="H122" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="123" ht="13.55" customHeight="1">
       <c r="A123" t="s" s="5">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D123" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E123" s="6">
+        <v>61</v>
+      </c>
+      <c r="E123" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="124" ht="13.55" customHeight="1">
       <c r="A124" t="s" s="5">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D124" t="s" s="5">
-        <v>296</v>
-      </c>
-      <c r="E124" s="6">
+        <v>311</v>
+      </c>
+      <c r="E124" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="125" ht="13.55" customHeight="1">
       <c r="A125" t="s" s="5">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D125" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E125" s="6">
+        <v>61</v>
+      </c>
+      <c r="E125" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G125" s="6">
+        <v>10</v>
+      </c>
+      <c r="H125" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="126" ht="13.55" customHeight="1">
       <c r="A126" t="s" s="5">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="D126" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="E126" s="6">
+        <v>58</v>
+      </c>
+      <c r="E126" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="127" ht="13.55" customHeight="1">
       <c r="A127" t="s" s="5">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="E127" s="6">
+        <v>148</v>
+      </c>
+      <c r="E127" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="F127" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G127" s="7"/>
+      <c r="H127" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="128" ht="13.55" customHeight="1">
       <c r="A128" t="s" s="5">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D128" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E128" s="6">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="F128" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="129" ht="13.55" customHeight="1">
       <c r="A129" t="s" s="5">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D129" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E129" s="6">
+        <v>151</v>
+      </c>
+      <c r="E129" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="F129" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="130" ht="13.55" customHeight="1">
       <c r="A130" t="s" s="5">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="D130" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="E130" s="6">
+        <v>151</v>
+      </c>
+      <c r="E130" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="131" ht="13.55" customHeight="1">
       <c r="A131" t="s" s="5">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D131" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E131" s="6">
+        <v>61</v>
+      </c>
+      <c r="E131" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="132" ht="13.55" customHeight="1">
       <c r="A132" t="s" s="5">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D132" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E132" s="6">
+        <v>273</v>
+      </c>
+      <c r="E132" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G132" s="7"/>
+      <c r="H132" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="133" ht="13.55" customHeight="1">
       <c r="A133" t="s" s="5">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="D133" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E133" s="6">
+        <v>46</v>
+      </c>
+      <c r="E133" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G133" s="7"/>
+      <c r="H133" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="134" ht="13.55" customHeight="1">
       <c r="A134" t="s" s="5">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E134" s="6">
+        <v>46</v>
+      </c>
+      <c r="E134" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="135" ht="13.55" customHeight="1">
       <c r="A135" t="s" s="5">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E135" s="6">
+        <v>46</v>
+      </c>
+      <c r="E135" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G135" s="7"/>
+      <c r="H135" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="136" ht="13.55" customHeight="1">
       <c r="A136" t="s" s="5">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E136" s="6">
+        <v>46</v>
+      </c>
+      <c r="E136" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="6">
         <v>2019</v>
       </c>
     </row>
     <row r="137" ht="13.55" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="D137" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E137" s="6">
+        <v>46</v>
+      </c>
+      <c r="E137" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G137" s="6">
+        <v>10</v>
+      </c>
+      <c r="H137" s="6">
         <v>2019</v>
       </c>
     </row>
     <row r="138" ht="13.55" customHeight="1">
       <c r="A138" t="s" s="5">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E138" s="6">
+        <v>61</v>
+      </c>
+      <c r="E138" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G138" s="7"/>
+      <c r="H138" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="139" ht="13.55" customHeight="1">
       <c r="A139" t="s" s="5">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E139" s="6">
+        <v>46</v>
+      </c>
+      <c r="E139" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="140" ht="13.55" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E140" s="6">
+        <v>46</v>
+      </c>
+      <c r="E140" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G140" s="6">
+        <v>10</v>
+      </c>
+      <c r="H140" s="6">
         <v>2021</v>
       </c>
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="5">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D141" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="E141" s="6">
+        <v>129</v>
+      </c>
+      <c r="E141" t="s" s="5">
+        <v>209</v>
+      </c>
+      <c r="F141" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G141" s="7"/>
+      <c r="H141" s="6">
         <v>2021</v>
       </c>
     </row>
     <row r="142" ht="13.55" customHeight="1">
       <c r="A142" t="s" s="5">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D142" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E142" s="6">
+        <v>61</v>
+      </c>
+      <c r="E142" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G142" s="7"/>
+      <c r="H142" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="143" ht="13.55" customHeight="1">
       <c r="A143" t="s" s="5">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D143" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E143" s="6">
+        <v>61</v>
+      </c>
+      <c r="E143" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="144" ht="13.55" customHeight="1">
       <c r="A144" t="s" s="5">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E144" s="6">
+        <v>61</v>
+      </c>
+      <c r="E144" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="145" ht="13.55" customHeight="1">
       <c r="A145" t="s" s="5">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E145" s="6">
+        <v>61</v>
+      </c>
+      <c r="E145" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G145" s="7"/>
+      <c r="H145" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" t="s" s="5">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D146" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E146" s="6">
+        <v>61</v>
+      </c>
+      <c r="E146" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G146" s="7"/>
+      <c r="H146" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="147" ht="13.55" customHeight="1">
       <c r="A147" t="s" s="5">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D147" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E147" s="6">
+        <v>61</v>
+      </c>
+      <c r="E147" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F147" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G147" s="7"/>
+      <c r="H147" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="148" ht="13.55" customHeight="1">
       <c r="A148" t="s" s="5">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="D148" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E148" s="6">
+        <v>61</v>
+      </c>
+      <c r="E148" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G148" s="6">
+        <v>10</v>
+      </c>
+      <c r="H148" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="149" ht="13.55" customHeight="1">
       <c r="A149" t="s" s="5">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E149" s="6">
+        <v>61</v>
+      </c>
+      <c r="E149" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G149" s="6">
+        <v>10</v>
+      </c>
+      <c r="H149" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="150" ht="13.55" customHeight="1">
       <c r="A150" t="s" s="5">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B150" t="s" s="5">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E150" s="6">
+        <v>61</v>
+      </c>
+      <c r="E150" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F150" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G150" s="6">
+        <v>10</v>
+      </c>
+      <c r="H150" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="5">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="B151" t="s" s="5">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C151" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D151" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E151" s="6">
+        <v>61</v>
+      </c>
+      <c r="E151" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F151" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G151" s="7"/>
+      <c r="H151" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="152" ht="13.55" customHeight="1">
       <c r="A152" t="s" s="5">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B152" t="s" s="5">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D152" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E152" s="6">
+        <v>61</v>
+      </c>
+      <c r="E152" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F152" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G152" s="7"/>
+      <c r="H152" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="153" ht="13.55" customHeight="1">
       <c r="A153" t="s" s="5">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B153" t="s" s="5">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C153" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D153" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E153" s="6">
+        <v>61</v>
+      </c>
+      <c r="E153" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G153" s="7"/>
+      <c r="H153" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="154" ht="13.55" customHeight="1">
       <c r="A154" t="s" s="5">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B154" t="s" s="5">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C154" t="s" s="5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D154" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E154" s="6">
+        <v>61</v>
+      </c>
+      <c r="E154" t="s" s="5">
+        <v>366</v>
+      </c>
+      <c r="F154" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G154" s="6">
+        <v>10</v>
+      </c>
+      <c r="H154" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="155" ht="13.55" customHeight="1">
       <c r="A155" t="s" s="5">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B155" t="s" s="5">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E155" s="6">
+        <v>61</v>
+      </c>
+      <c r="E155" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F155" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G155" s="6">
+        <v>10</v>
+      </c>
+      <c r="H155" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="156" ht="13.55" customHeight="1">
       <c r="A156" t="s" s="5">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B156" t="s" s="5">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C156" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E156" s="6">
+        <v>61</v>
+      </c>
+      <c r="E156" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="157" ht="13.55" customHeight="1">
       <c r="A157" t="s" s="5">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B157" t="s" s="5">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C157" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D157" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E157" s="6">
+        <v>61</v>
+      </c>
+      <c r="E157" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F157" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G157" s="6">
+        <v>10</v>
+      </c>
+      <c r="H157" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="158" ht="13.55" customHeight="1">
       <c r="A158" t="s" s="5">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B158" t="s" s="5">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C158" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D158" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E158" s="6">
+        <v>61</v>
+      </c>
+      <c r="E158" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F158" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G158" s="7"/>
+      <c r="H158" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="159" ht="13.55" customHeight="1">
       <c r="A159" t="s" s="5">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B159" t="s" s="5">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C159" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E159" s="6">
+        <v>61</v>
+      </c>
+      <c r="E159" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F159" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G159" s="6">
+        <v>10</v>
+      </c>
+      <c r="H159" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="160" ht="13.55" customHeight="1">
       <c r="A160" t="s" s="5">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B160" t="s" s="5">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C160" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D160" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E160" s="6">
+        <v>61</v>
+      </c>
+      <c r="E160" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F160" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G160" s="7"/>
+      <c r="H160" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="161" ht="13.55" customHeight="1">
       <c r="A161" t="s" s="5">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B161" t="s" s="5">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C161" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D161" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E161" s="6">
+        <v>273</v>
+      </c>
+      <c r="E161" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F161" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G161" s="6">
+        <v>10</v>
+      </c>
+      <c r="H161" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="162" ht="13.55" customHeight="1">
       <c r="A162" t="s" s="5">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B162" t="s" s="5">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C162" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E162" s="6">
+        <v>61</v>
+      </c>
+      <c r="E162" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F162" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G162" s="6">
+        <v>10</v>
+      </c>
+      <c r="H162" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="163" ht="13.55" customHeight="1">
       <c r="A163" t="s" s="5">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="B163" t="s" s="5">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C163" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E163" s="6">
+        <v>61</v>
+      </c>
+      <c r="E163" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F163" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G163" s="7"/>
+      <c r="H163" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="164" ht="13.55" customHeight="1">
       <c r="A164" t="s" s="5">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="B164" t="s" s="5">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C164" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s" s="5">
-        <v>369</v>
-      </c>
-      <c r="E164" s="6">
+        <v>385</v>
+      </c>
+      <c r="E164" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F164" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G164" s="7"/>
+      <c r="H164" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="165" ht="13.55" customHeight="1">
       <c r="A165" t="s" s="5">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B165" t="s" s="5">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C165" t="s" s="5">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D165" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E165" s="6">
+        <v>61</v>
+      </c>
+      <c r="E165" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="F165" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G165" s="7"/>
+      <c r="H165" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="166" ht="13.55" customHeight="1">
       <c r="A166" t="s" s="5">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="B166" t="s" s="5">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="C166" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E166" s="6">
+        <v>273</v>
+      </c>
+      <c r="E166" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F166" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G166" s="7"/>
+      <c r="H166" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="167" ht="13.55" customHeight="1">
       <c r="A167" t="s" s="5">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B167" t="s" s="5">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C167" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E167" s="6">
+        <v>61</v>
+      </c>
+      <c r="E167" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F167" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G167" s="7"/>
+      <c r="H167" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="168" ht="13.55" customHeight="1">
       <c r="A168" t="s" s="5">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B168" t="s" s="5">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C168" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D168" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E168" s="6">
+        <v>61</v>
+      </c>
+      <c r="E168" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F168" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G168" s="7"/>
+      <c r="H168" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="169" ht="13.55" customHeight="1">
       <c r="A169" t="s" s="5">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B169" t="s" s="5">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C169" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E169" s="6">
+        <v>61</v>
+      </c>
+      <c r="E169" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F169" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G169" s="7"/>
+      <c r="H169" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="170" ht="13.55" customHeight="1">
       <c r="A170" t="s" s="5">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="B170" t="s" s="5">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C170" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E170" s="6">
+        <v>61</v>
+      </c>
+      <c r="E170" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F170" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G170" s="7"/>
+      <c r="H170" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="171" ht="13.55" customHeight="1">
       <c r="A171" t="s" s="5">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="B171" t="s" s="5">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="C171" t="s" s="5">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="D171" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E171" s="6">
+        <v>61</v>
+      </c>
+      <c r="E171" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F171" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G171" s="7"/>
+      <c r="H171" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="5">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="B172" t="s" s="5">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C172" t="s" s="5">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D172" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E172" s="6">
+        <v>61</v>
+      </c>
+      <c r="E172" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="F172" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G172" s="7"/>
+      <c r="H172" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="5">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="B173" t="s" s="5">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C173" t="s" s="5">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D173" t="s" s="5">
-        <v>369</v>
-      </c>
-      <c r="E173" s="6">
+        <v>385</v>
+      </c>
+      <c r="E173" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="F173" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="G173" s="7"/>
+      <c r="H173" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="174" ht="13.55" customHeight="1">
       <c r="A174" t="s" s="5">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B174" t="s" s="5">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C174" t="s" s="5">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D174" t="s" s="5">
-        <v>391</v>
-      </c>
-      <c r="E174" s="6">
+        <v>408</v>
+      </c>
+      <c r="E174" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="F174" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="G174" s="7"/>
+      <c r="H174" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="175" ht="13.55" customHeight="1">
       <c r="A175" t="s" s="5">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="B175" t="s" s="5">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C175" t="s" s="5">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D175" t="s" s="5">
-        <v>391</v>
-      </c>
-      <c r="E175" s="6">
+        <v>408</v>
+      </c>
+      <c r="E175" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="F175" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="G175" s="7"/>
+      <c r="H175" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="176" ht="13.55" customHeight="1">
       <c r="A176" t="s" s="5">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B176" t="s" s="5">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C176" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D176" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E176" s="6">
+        <v>61</v>
+      </c>
+      <c r="E176" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F176" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G176" s="6">
+        <v>10</v>
+      </c>
+      <c r="H176" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="177" ht="13.55" customHeight="1">
       <c r="A177" t="s" s="5">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B177" t="s" s="5">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C177" t="s" s="5">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D177" t="s" s="5">
-        <v>296</v>
-      </c>
-      <c r="E177" s="6">
+        <v>311</v>
+      </c>
+      <c r="E177" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="F177" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="G177" s="7"/>
+      <c r="H177" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="178" ht="13.55" customHeight="1">
       <c r="A178" t="s" s="5">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="B178" t="s" s="5">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C178" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s" s="5">
-        <v>400</v>
-      </c>
-      <c r="E178" s="6">
+        <v>417</v>
+      </c>
+      <c r="E178" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F178" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="179" ht="13.55" customHeight="1">
       <c r="A179" t="s" s="5">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B179" t="s" s="5">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C179" t="s" s="5">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D179" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E179" s="6">
+        <v>61</v>
+      </c>
+      <c r="E179" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="F179" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G179" s="7"/>
+      <c r="H179" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="180" ht="13.55" customHeight="1">
       <c r="A180" t="s" s="5">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B180" t="s" s="5">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C180" t="s" s="5">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="D180" t="s" s="5">
-        <v>391</v>
-      </c>
-      <c r="E180" s="6">
+        <v>408</v>
+      </c>
+      <c r="E180" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="F180" t="s" s="5">
+        <v>405</v>
+      </c>
+      <c r="G180" s="7"/>
+      <c r="H180" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="181" ht="13.55" customHeight="1">
       <c r="A181" t="s" s="5">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="B181" t="s" s="5">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="C181" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D181" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E181" s="6">
+        <v>61</v>
+      </c>
+      <c r="E181" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F181" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G181" s="7"/>
+      <c r="H181" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="182" ht="13.55" customHeight="1">
       <c r="A182" t="s" s="5">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="B182" t="s" s="5">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C182" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D182" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E182" s="6">
+        <v>61</v>
+      </c>
+      <c r="E182" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F182" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G182" s="6">
+        <v>10</v>
+      </c>
+      <c r="H182" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="183" ht="13.55" customHeight="1">
       <c r="A183" t="s" s="5">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B183" t="s" s="5">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C183" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D183" t="s" s="5">
-        <v>400</v>
-      </c>
-      <c r="E183" s="6">
+        <v>417</v>
+      </c>
+      <c r="E183" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F183" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G183" s="6">
+        <v>10</v>
+      </c>
+      <c r="H183" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="184" ht="13.55" customHeight="1">
       <c r="A184" t="s" s="5">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="B184" t="s" s="5">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="C184" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E184" s="6">
+        <v>61</v>
+      </c>
+      <c r="E184" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F184" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G184" s="6">
+        <v>10</v>
+      </c>
+      <c r="H184" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="185" ht="13.55" customHeight="1">
       <c r="A185" t="s" s="5">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B185" t="s" s="5">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C185" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D185" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E185" s="6">
+        <v>61</v>
+      </c>
+      <c r="E185" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F185" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G185" s="6">
+        <v>10</v>
+      </c>
+      <c r="H185" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="186" ht="13.55" customHeight="1">
       <c r="A186" t="s" s="5">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="B186" t="s" s="5">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C186" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E186" s="6">
+        <v>61</v>
+      </c>
+      <c r="E186" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F186" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G186" s="6">
+        <v>10</v>
+      </c>
+      <c r="H186" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="187" ht="13.55" customHeight="1">
       <c r="A187" t="s" s="5">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B187" t="s" s="5">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C187" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D187" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E187" s="6">
+        <v>61</v>
+      </c>
+      <c r="E187" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G187" s="7"/>
+      <c r="H187" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="188" ht="13.55" customHeight="1">
       <c r="A188" t="s" s="5">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B188" t="s" s="5">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="C188" t="s" s="5">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D188" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E188" s="6">
+        <v>273</v>
+      </c>
+      <c r="E188" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="G188" s="7"/>
+      <c r="H188" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="189" ht="13.55" customHeight="1">
       <c r="A189" t="s" s="5">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B189" t="s" s="5">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C189" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E189" s="6">
+        <v>61</v>
+      </c>
+      <c r="E189" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F189" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G189" s="6">
+        <v>10</v>
+      </c>
+      <c r="H189" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="190" ht="13.55" customHeight="1">
       <c r="A190" t="s" s="5">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="B190" t="s" s="5">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C190" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E190" s="6">
+        <v>61</v>
+      </c>
+      <c r="E190" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F190" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G190" s="6">
+        <v>10</v>
+      </c>
+      <c r="H190" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="191" ht="13.55" customHeight="1">
       <c r="A191" t="s" s="5">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B191" t="s" s="5">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="C191" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E191" s="6">
+        <v>61</v>
+      </c>
+      <c r="E191" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F191" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G191" s="6">
+        <v>10</v>
+      </c>
+      <c r="H191" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="192" ht="13.55" customHeight="1">
       <c r="A192" t="s" s="5">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B192" t="s" s="5">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C192" t="s" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E192" s="6">
+        <v>61</v>
+      </c>
+      <c r="E192" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F192" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G192" s="7"/>
+      <c r="H192" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="193" ht="13.55" customHeight="1">
       <c r="A193" t="s" s="5">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="B193" t="s" s="5">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C193" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E193" s="6">
+        <v>61</v>
+      </c>
+      <c r="E193" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F193" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G193" s="7"/>
+      <c r="H193" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="194" ht="13.55" customHeight="1">
       <c r="A194" t="s" s="5">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="B194" t="s" s="5">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="C194" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E194" s="6">
+        <v>61</v>
+      </c>
+      <c r="E194" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F194" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G194" s="7"/>
+      <c r="H194" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="195" ht="13.55" customHeight="1">
       <c r="A195" t="s" s="5">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B195" t="s" s="5">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C195" t="s" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D195" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="E195" s="6">
+        <v>61</v>
+      </c>
+      <c r="E195" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F195" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G195" s="7"/>
+      <c r="H195" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="196" ht="13.55" customHeight="1">
+      <c r="A196" t="s" s="5">
+        <v>447</v>
+      </c>
+      <c r="B196" t="s" s="5">
+        <v>448</v>
+      </c>
+      <c r="C196" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="E196" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F196" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G196" s="6">
+        <v>10</v>
+      </c>
+      <c r="H196" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="197" ht="13.55" customHeight="1">
+      <c r="A197" t="s" s="5">
+        <v>449</v>
+      </c>
+      <c r="B197" t="s" s="5">
+        <v>450</v>
+      </c>
+      <c r="C197" t="s" s="5">
+        <v>451</v>
+      </c>
+      <c r="D197" t="s" s="5">
+        <v>273</v>
+      </c>
+      <c r="E197" t="s" s="5">
+        <v>156</v>
+      </c>
+      <c r="F197" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G197" s="7"/>
+      <c r="H197" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="198" ht="13.55" customHeight="1">
+      <c r="A198" t="s" s="5">
+        <v>452</v>
+      </c>
+      <c r="B198" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="C198" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="D198" t="s" s="5">
+        <v>273</v>
+      </c>
+      <c r="E198" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F198" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G198" s="6">
+        <v>10</v>
+      </c>
+      <c r="H198" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="199" ht="13.55" customHeight="1">
+      <c r="A199" t="s" s="5">
+        <v>453</v>
+      </c>
+      <c r="B199" t="s" s="5">
+        <v>454</v>
+      </c>
+      <c r="C199" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="D199" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="E199" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F199" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G199" s="7"/>
+      <c r="H199" s="6">
         <v>2025</v>
       </c>
     </row>

--- a/data/20251011_book_record.xlsx
+++ b/data/20251011_book_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
   <si>
     <t>title</t>
   </si>
@@ -1376,6 +1376,12 @@
   </si>
   <si>
     <t>Martha Wells</t>
+  </si>
+  <si>
+    <t>Children of Time</t>
+  </si>
+  <si>
+    <t>Adrian Tchaikovsky</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7457,6 +7463,32 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="200" ht="13.55" customHeight="1">
+      <c r="A200" t="s" s="5">
+        <v>455</v>
+      </c>
+      <c r="B200" t="s" s="5">
+        <v>456</v>
+      </c>
+      <c r="C200" t="s" s="5">
+        <v>10</v>
+      </c>
+      <c r="D200" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="E200" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F200" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G200" s="6">
+        <v>10</v>
+      </c>
+      <c r="H200" s="6">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/data/20251011_book_record.xlsx
+++ b/data/20251011_book_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
   <si>
     <t>title</t>
   </si>
@@ -1382,6 +1382,9 @@
   </si>
   <si>
     <t>Adrian Tchaikovsky</t>
+  </si>
+  <si>
+    <t>The Lathe of Heaven</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -7489,6 +7492,32 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="201" ht="13.55" customHeight="1">
+      <c r="A201" t="s" s="5">
+        <v>457</v>
+      </c>
+      <c r="B201" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="C201" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="D201" t="s" s="5">
+        <v>61</v>
+      </c>
+      <c r="E201" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F201" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="G201" s="6">
+        <v>10</v>
+      </c>
+      <c r="H201" s="6">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/data/20251011_book_record.xlsx
+++ b/data/20251011_book_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
   <si>
     <t>title</t>
   </si>
@@ -25,6 +25,12 @@
     <t>genre</t>
   </si>
   <si>
+    <t>anthology</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>language_original</t>
   </si>
   <si>
@@ -46,48 +52,63 @@
     <t>United Kingdom</t>
   </si>
   <si>
+    <t>Philosophy, History</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Nonfiction</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>The Social Contract</t>
+  </si>
+  <si>
+    <t>Jean-Jacques Rousseau</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Philosophy, Sociology</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Architect: The Work of the Pritzker Prize Laureates in Their Own Words</t>
+  </si>
+  <si>
+    <t>Grace Ong-Yan, Ruth A. Peltason</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Critique of Practical Reason</t>
+  </si>
+  <si>
+    <t>Immanuel Kant</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>Philosophy</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>The Social Contract</t>
-  </si>
-  <si>
-    <t>Jean-Jacques Rousseau</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Architect: The Work of the Pritzker Prize Laureates in Their Own Words</t>
-  </si>
-  <si>
-    <t>Grace Ong-Yan, Ruth A. Peltason</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>Critique of Practical Reason</t>
-  </si>
-  <si>
-    <t>Immanuel Kant</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>German</t>
   </si>
   <si>
@@ -103,6 +124,9 @@
     <t>Greece</t>
   </si>
   <si>
+    <t>Classic, Philosophy</t>
+  </si>
+  <si>
     <t>Ancient Greek</t>
   </si>
   <si>
@@ -121,13 +145,19 @@
     <t>Achim Bednorz, Rolf Toman</t>
   </si>
   <si>
+    <t>Architecture, History</t>
+  </si>
+  <si>
     <t>To Kill a Mockingbird</t>
   </si>
   <si>
     <t>Harper Lee</t>
   </si>
   <si>
-    <t>Drama, Classic</t>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Fiction</t>
   </si>
   <si>
     <t>Critique of Judgment</t>
@@ -229,9 +259,6 @@
     <t>William Shakespeare</t>
   </si>
   <si>
-    <t>Classic</t>
-  </si>
-  <si>
     <t>The Spirit of the Chinese People</t>
   </si>
   <si>
@@ -241,9 +268,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Philosophy, Sociology</t>
-  </si>
-  <si>
     <t>Hamlet</t>
   </si>
   <si>
@@ -265,9 +289,6 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>Philosophy, History</t>
-  </si>
-  <si>
     <t>Norwegian</t>
   </si>
   <si>
@@ -424,16 +445,13 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>Classic, Philosophy</t>
-  </si>
-  <si>
     <t>Tales of Terror: 58 Short Stories Chosen by the Master of Suspense</t>
   </si>
   <si>
     <t>Talmage Powell, Edward Wellen, Robert Colby, Theodore Mathieson, Bob Bristow, Richard O. Lewis, John Coyne, Charlotte Edwards, Bryce Walton, Michael Brett, Samuel W. Taylor, Brian Garfield, Harold Q. Masur, John Lutz, Betty Ren Wright, Michael Zuroy, Alice Scanlan Reach, Arthur Porges, Clayton Matthews, James M. Gilmore, Alfred Hitchcock, Al Nussbaum, Robert W. Alexander, Pauline C. Smith, Nedra Tyre, Donald Olson, William Brittain, Vincent McConnor, John F. Suter, Gary Brandner, Patricia Matthews, Mary Braund, Nelson DeMille, William P. McGivern, James Holding, Stephen Wasylyk, Barry N. Malzberg, Isak Romun, S.S. Rafferty, Helen Nielsen, Fletcher Flora, Irving Schiffer, Margaret B. Maron, Borden Deal, Libby MacCall, Jack Ritchie, Frank Sisk, Eleanor Sullivan, Hal Ellson, Donald Honig</t>
   </si>
   <si>
-    <t>Drama, Anthology</t>
+    <t>Thriller</t>
   </si>
   <si>
     <t>The Crowd: Study of the Popular Mind</t>
@@ -541,7 +559,7 @@
     <t>Creative Evolution</t>
   </si>
   <si>
-    <t>Selected Works</t>
+    <t>Selected Works of Goethe</t>
   </si>
   <si>
     <t>Johann Wolfgang von Goethe</t>
@@ -556,163 +574,166 @@
     <t>John H. Holland</t>
   </si>
   <si>
+    <t>Global Catastrophic Risks</t>
+  </si>
+  <si>
+    <t>Milan M. Cirkovic, Nick Bostrom</t>
+  </si>
+  <si>
+    <t>Serbia, Sweden</t>
+  </si>
+  <si>
+    <t>Sociology, Philosophy, Science</t>
+  </si>
+  <si>
+    <t>Out of Control: The New Biology of Machines, Social Systems, and the Economic World</t>
+  </si>
+  <si>
+    <t>Kevin Kelly</t>
+  </si>
+  <si>
+    <t>Science, Sociology</t>
+  </si>
+  <si>
+    <t>The True Believer: Thoughts on the Nature of Mass Movements</t>
+  </si>
+  <si>
+    <t>Eric Hoffer</t>
+  </si>
+  <si>
+    <t>Forgotten Chicago</t>
+  </si>
+  <si>
+    <t>John Paulett, Ron Gordon</t>
+  </si>
+  <si>
+    <t>The Book of Universes: Exploring the Limits of the Cosmos</t>
+  </si>
+  <si>
+    <t>Ludwig Boltzmann: The Man Who Trusted Atoms</t>
+  </si>
+  <si>
+    <t>Carlo Cercignani</t>
+  </si>
+  <si>
+    <t>History, Science</t>
+  </si>
+  <si>
+    <t>Science and Hypothesis</t>
+  </si>
+  <si>
+    <t>Henri Poincare</t>
+  </si>
+  <si>
+    <t>Philosophy, Science</t>
+  </si>
+  <si>
+    <t>When Cultures Collide: Leading Across Cultures</t>
+  </si>
+  <si>
+    <t>Richard D. Lewis</t>
+  </si>
+  <si>
+    <t>Gödel, Escher, Bach: an Eternal Golden Braid</t>
+  </si>
+  <si>
+    <t>Douglas R. Hofstadter</t>
+  </si>
+  <si>
+    <t>Sapiens: A Brief History of Humankind</t>
+  </si>
+  <si>
+    <t>Yuval Noah Harari</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>The Selfish Gene</t>
+  </si>
+  <si>
+    <t>Richard Dawkins</t>
+  </si>
+  <si>
+    <t>Kenya, United Kingdom</t>
+  </si>
+  <si>
+    <t>The End of Certainty</t>
+  </si>
+  <si>
+    <t>Ilya Prigogine</t>
+  </si>
+  <si>
+    <t>Russian Federation, Belgium</t>
+  </si>
+  <si>
+    <t>The Story and Language of Heraldry: The Development of Coats of Arms and Heraldic Symbols, with 575 Illustrations</t>
+  </si>
+  <si>
+    <t>Stephen Slater</t>
+  </si>
+  <si>
+    <t>The God Particle: If the Universe Is the Answer, What Is the Question?</t>
+  </si>
+  <si>
+    <t>Dick Teresi, Leon Lederman</t>
+  </si>
+  <si>
+    <t>The Ages of Gaia: A Biography of Our Living Earth</t>
+  </si>
+  <si>
+    <t>James Lovelock</t>
+  </si>
+  <si>
+    <t>Anthropic Bias: Observation Selection Effects in Science and Philosophy</t>
+  </si>
+  <si>
+    <t>Nick Bostrom</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Cycles of Time: An Extraordinary New View of the Universe</t>
+  </si>
+  <si>
+    <t>Roger Penrose</t>
+  </si>
+  <si>
+    <t>The Meaning of It All: Thoughts of a Citizen-Scientist</t>
+  </si>
+  <si>
+    <t>Richard P. Feynman</t>
+  </si>
+  <si>
+    <t>A History Of Western Society</t>
+  </si>
+  <si>
+    <t>John P. McKay</t>
+  </si>
+  <si>
+    <t>Antifragile: Things That Gain from Disorder</t>
+  </si>
+  <si>
+    <t>Nassim Nicholas Taleb</t>
+  </si>
+  <si>
+    <t>Lebanon, United States</t>
+  </si>
+  <si>
+    <t>The Three-Body Problem</t>
+  </si>
+  <si>
+    <t>Liu Cixin</t>
+  </si>
+  <si>
     <t>The Dark Forest</t>
   </si>
   <si>
-    <t>Liu Cixin</t>
-  </si>
-  <si>
-    <t>Global Catastrophic Risks</t>
-  </si>
-  <si>
-    <t>Milan M. Cirkovic, Nick Bostrom</t>
-  </si>
-  <si>
-    <t>Serbia, Sweden</t>
-  </si>
-  <si>
-    <t>Sociology, Philosophy, Science</t>
-  </si>
-  <si>
-    <t>The Three-Body Problem</t>
-  </si>
-  <si>
-    <t>Out of Control: The New Biology of Machines, Social Systems, and the Economic World</t>
-  </si>
-  <si>
-    <t>Kevin Kelly</t>
-  </si>
-  <si>
-    <t>Science, Sociology</t>
-  </si>
-  <si>
-    <t>The True Believer: Thoughts on the Nature of Mass Movements</t>
-  </si>
-  <si>
-    <t>Eric Hoffer</t>
-  </si>
-  <si>
-    <t>Forgotten Chicago</t>
-  </si>
-  <si>
-    <t>John Paulett, Ron Gordon</t>
-  </si>
-  <si>
-    <t>The Book of Universes: Exploring the Limits of the Cosmos</t>
-  </si>
-  <si>
-    <t>Ludwig Boltzmann: The Man Who Trusted Atoms</t>
-  </si>
-  <si>
-    <t>Carlo Cercignani</t>
-  </si>
-  <si>
-    <t>History, Science</t>
-  </si>
-  <si>
-    <t>Science and Hypothesis</t>
-  </si>
-  <si>
-    <t>Henri Poincare</t>
-  </si>
-  <si>
-    <t>Philosophy, Science</t>
-  </si>
-  <si>
-    <t>When Cultures Collide: Leading Across Cultures</t>
-  </si>
-  <si>
-    <t>Richard D. Lewis</t>
-  </si>
-  <si>
-    <t>Gödel, Escher, Bach: an Eternal Golden Braid</t>
-  </si>
-  <si>
-    <t>Douglas R. Hofstadter</t>
-  </si>
-  <si>
-    <t>Sapiens: A Brief History of Humankind</t>
-  </si>
-  <si>
-    <t>Yuval Noah Harari</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
-    <t>The Selfish Gene</t>
-  </si>
-  <si>
-    <t>Richard Dawkins</t>
-  </si>
-  <si>
-    <t>Kenya, United Kingdom</t>
-  </si>
-  <si>
-    <t>The End of Certainty</t>
-  </si>
-  <si>
-    <t>Ilya Prigogine</t>
-  </si>
-  <si>
-    <t>Russian Federation, Belgium</t>
-  </si>
-  <si>
-    <t>The Story and Language of Heraldry: The Development of Coats of Arms and Heraldic Symbols, with 575 Illustrations</t>
-  </si>
-  <si>
-    <t>Stephen Slater</t>
-  </si>
-  <si>
-    <t>The God Particle: If the Universe Is the Answer, What Is the Question?</t>
-  </si>
-  <si>
-    <t>Dick Teresi, Leon Lederman</t>
-  </si>
-  <si>
-    <t>The Ages of Gaia: A Biography of Our Living Earth</t>
-  </si>
-  <si>
-    <t>James Lovelock</t>
-  </si>
-  <si>
-    <t>Anthropic Bias: Observation Selection Effects in Science and Philosophy</t>
-  </si>
-  <si>
-    <t>Nick Bostrom</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Cycles of Time: An Extraordinary New View of the Universe</t>
-  </si>
-  <si>
-    <t>Roger Penrose</t>
-  </si>
-  <si>
-    <t>The Meaning of It All: Thoughts of a Citizen-Scientist</t>
-  </si>
-  <si>
-    <t>Richard P. Feynman</t>
-  </si>
-  <si>
-    <t>A History Of Western Society</t>
-  </si>
-  <si>
-    <t>John P. McKay</t>
-  </si>
-  <si>
-    <t>Antifragile: Things That Gain from Disorder</t>
-  </si>
-  <si>
-    <t>Nassim Nicholas Taleb</t>
-  </si>
-  <si>
-    <t>Lebanon, United States</t>
+    <t>Death's End</t>
   </si>
   <si>
     <t>Superintelligence: Paths, Dangers, Strategies</t>
@@ -775,9 +796,6 @@
     <t>Religion, Sociology</t>
   </si>
   <si>
-    <t>Death's End</t>
-  </si>
-  <si>
     <t>The End of Power</t>
   </si>
   <si>
@@ -832,9 +850,6 @@
     <t>Ted Chiang</t>
   </si>
   <si>
-    <t>Science Fiction, Anthology</t>
-  </si>
-  <si>
     <t>Chaos: A Very Short Introduction</t>
   </si>
   <si>
@@ -946,9 +961,6 @@
     <t>August Wilson</t>
   </si>
   <si>
-    <t>Drama, Historical Fiction</t>
-  </si>
-  <si>
     <t>Blindsight</t>
   </si>
   <si>
@@ -1006,7 +1018,7 @@
     <t>Mark Newman</t>
   </si>
   <si>
-    <t>Mathematical Methods for Physics and Engineering: A Comprehensive Guide</t>
+    <t>Mathematical Methods for Physics and Engineering</t>
   </si>
   <si>
     <t>M. P. Hobson, K. F. Riley, S. J. Bence</t>
@@ -1075,6 +1087,9 @@
     <t>Rendezvous with Rama</t>
   </si>
   <si>
+    <t>Classic, Science Fiction</t>
+  </si>
+  <si>
     <t>The Fountains of Paradise</t>
   </si>
   <si>
@@ -1237,9 +1252,6 @@
     <t>Sara Lövestam</t>
   </si>
   <si>
-    <t>Drama, Detective</t>
-  </si>
-  <si>
     <t>Pyramiden (lättläst)</t>
   </si>
   <si>
@@ -1264,9 +1276,6 @@
     <t>Mary Shelley</t>
   </si>
   <si>
-    <t>Classic, Science Fiction</t>
-  </si>
-  <si>
     <t>Hard to Be a God</t>
   </si>
   <si>
@@ -1385,6 +1394,9 @@
   </si>
   <si>
     <t>The Lathe of Heaven</t>
+  </si>
+  <si>
+    <t>Roadside Picnic</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2605,11 +2617,12 @@
     <col min="2" max="2" width="22.5312" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.4141" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.6406" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.8125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -2637,4884 +2650,6120 @@
       <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4">
         <v>2013</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="5">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="5">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="I3" s="6">
         <v>10</v>
       </c>
-      <c r="H3" s="6">
+      <c r="J3" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="5">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="5">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="5">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s" s="5">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s" s="5">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s" s="5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s" s="5">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="5">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s" s="5">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s" s="5">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s" s="5">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="5">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="F12" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6">
+      <c r="I12" s="7"/>
+      <c r="J12" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="5">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s" s="5">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="5">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="B14" t="s" s="5">
-        <v>35</v>
-      </c>
       <c r="C14" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G14" s="6">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I14" s="6">
         <v>10</v>
       </c>
-      <c r="H14" s="6">
+      <c r="J14" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="5">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="5">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G16" s="6">
-        <v>10</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="J16" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="17" ht="13.55" customHeight="1">
       <c r="A17" t="s" s="5">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="18" ht="13.55" customHeight="1">
       <c r="A18" t="s" s="5">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s" s="5">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s" s="5">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="19" ht="13.55" customHeight="1">
       <c r="A19" t="s" s="5">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="F19" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6">
+      <c r="I19" s="7"/>
+      <c r="J19" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="20" ht="13.55" customHeight="1">
       <c r="A20" t="s" s="5">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s" s="5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="21" ht="13.55" customHeight="1">
       <c r="A21" t="s" s="5">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="22" ht="13.55" customHeight="1">
       <c r="A22" t="s" s="5">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s" s="5">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F22" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="6">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="H22" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="23" ht="13.55" customHeight="1">
       <c r="A23" t="s" s="5">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="24" ht="13.55" customHeight="1">
       <c r="A24" t="s" s="5">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="F24" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="6">
+      <c r="I24" s="7"/>
+      <c r="J24" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="25" ht="13.55" customHeight="1">
       <c r="A25" t="s" s="5">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s" s="5">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6">
+        <v>48</v>
+      </c>
+      <c r="G25" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6">
         <v>2013</v>
       </c>
     </row>
     <row r="26" ht="13.55" customHeight="1">
       <c r="A26" t="s" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s" s="5">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6">
+        <v>48</v>
+      </c>
+      <c r="G26" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="27" ht="13.55" customHeight="1">
       <c r="A27" t="s" s="5">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s" s="5">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="28" ht="13.55" customHeight="1">
       <c r="A28" t="s" s="5">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s" s="5">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="29" ht="13.55" customHeight="1">
       <c r="A29" t="s" s="5">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s" s="5">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s" s="5">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="6">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="H29" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="30" ht="13.55" customHeight="1">
       <c r="A30" t="s" s="5">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s" s="5">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s" s="5">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s" s="5">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G30" s="6">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s" s="5">
+        <v>92</v>
+      </c>
+      <c r="H30" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I30" s="6">
         <v>10</v>
       </c>
-      <c r="H30" s="6">
+      <c r="J30" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="31" ht="13.55" customHeight="1">
       <c r="A31" t="s" s="5">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s" s="5">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F31" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="6">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H31" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="32" ht="13.55" customHeight="1">
       <c r="A32" t="s" s="5">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s" s="5">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s" s="5">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="6">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s" s="5">
+        <v>99</v>
+      </c>
+      <c r="H32" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="33" ht="13.55" customHeight="1">
       <c r="A33" t="s" s="5">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s" s="5">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="34" ht="13.55" customHeight="1">
       <c r="A34" t="s" s="5">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s" s="5">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="6">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="35" ht="13.55" customHeight="1">
       <c r="A35" t="s" s="5">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s" s="5">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s" s="5">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="6">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="36" ht="13.55" customHeight="1">
       <c r="A36" t="s" s="5">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s" s="5">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F36" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="6">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="37" ht="13.55" customHeight="1">
       <c r="A37" t="s" s="5">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="6">
+        <v>15</v>
+      </c>
+      <c r="G37" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="38" ht="13.55" customHeight="1">
       <c r="A38" t="s" s="5">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s" s="5">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="39" ht="13.55" customHeight="1">
       <c r="A39" t="s" s="5">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s" s="5">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="6">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="40" ht="13.55" customHeight="1">
       <c r="A40" t="s" s="5">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s" s="5">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E40" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H40" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="41" ht="13.55" customHeight="1">
       <c r="A41" t="s" s="5">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s" s="5">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F41" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="6">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="42" ht="13.55" customHeight="1">
       <c r="A42" t="s" s="5">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="6">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="43" ht="13.55" customHeight="1">
       <c r="A43" t="s" s="5">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I43" s="6">
         <v>10</v>
       </c>
-      <c r="D43" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="E43" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G43" s="6">
-        <v>10</v>
-      </c>
-      <c r="H43" s="6">
+      <c r="J43" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="44" ht="13.55" customHeight="1">
       <c r="A44" t="s" s="5">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s" s="5">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D44" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E44" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="6">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="45" ht="13.55" customHeight="1">
       <c r="A45" t="s" s="5">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E45" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H45" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="46" ht="13.55" customHeight="1">
       <c r="A46" t="s" s="5">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D46" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="6">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H46" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="47" ht="13.55" customHeight="1">
       <c r="A47" t="s" s="5">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s" s="5">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="6">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="H47" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="48" ht="13.55" customHeight="1">
       <c r="A48" t="s" s="5">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s" s="5">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s" s="5">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F48" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="6">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H48" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="49" ht="13.55" customHeight="1">
       <c r="A49" t="s" s="5">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s" s="5">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I49" s="6">
         <v>10</v>
       </c>
-      <c r="D49" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="E49" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F49" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G49" s="6">
-        <v>10</v>
-      </c>
-      <c r="H49" s="6">
+      <c r="J49" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="50" ht="13.55" customHeight="1">
       <c r="A50" t="s" s="5">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D50" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="6">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="51" ht="13.55" customHeight="1">
       <c r="A51" t="s" s="5">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s" s="5">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s" s="5">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s" s="5">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="6">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="H51" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="52" ht="13.55" customHeight="1">
       <c r="A52" t="s" s="5">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C52" t="s" s="5">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D52" t="s" s="5">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6">
+        <v>48</v>
+      </c>
+      <c r="G52" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="53" ht="13.55" customHeight="1">
       <c r="A53" t="s" s="5">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s" s="5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F53" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="F53" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6">
+      <c r="I53" s="7"/>
+      <c r="J53" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="54" ht="13.55" customHeight="1">
       <c r="A54" t="s" s="5">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s" s="5">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E54" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6">
+        <v>15</v>
+      </c>
+      <c r="G54" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="55" ht="13.55" customHeight="1">
       <c r="A55" t="s" s="5">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s" s="5">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s" s="5">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E55" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="6">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H55" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="56" ht="13.55" customHeight="1">
       <c r="A56" t="s" s="5">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C56" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D56" t="s" s="5">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E56" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H56" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="57" ht="13.55" customHeight="1">
       <c r="A57" t="s" s="5">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s" s="5">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s" s="5">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E57" t="s" s="5">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="F57" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="6">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="H57" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="58" ht="13.55" customHeight="1">
       <c r="A58" t="s" s="5">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s" s="5">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D58" t="s" s="5">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E58" t="s" s="5">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F58" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="6">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s" s="5">
+        <v>64</v>
+      </c>
+      <c r="H58" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="59" ht="13.55" customHeight="1">
       <c r="A59" t="s" s="5">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E59" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="F59" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="6">
+      <c r="I59" s="7"/>
+      <c r="J59" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="60" ht="13.55" customHeight="1">
       <c r="A60" t="s" s="5">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C60" t="s" s="5">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D60" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E60" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="6">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="61" ht="13.55" customHeight="1">
       <c r="A61" t="s" s="5">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D61" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E61" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="6">
+        <v>48</v>
+      </c>
+      <c r="G61" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="62" ht="13.55" customHeight="1">
       <c r="A62" t="s" s="5">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s" s="5">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D62" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E62" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F62" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="6">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H62" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="63" ht="13.55" customHeight="1">
       <c r="A63" t="s" s="5">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s" s="5">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s" s="5">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="6">
+        <v>15</v>
+      </c>
+      <c r="G63" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="64" ht="13.55" customHeight="1">
       <c r="A64" t="s" s="5">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="6">
+        <v>15</v>
+      </c>
+      <c r="G64" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="65" ht="13.55" customHeight="1">
       <c r="A65" t="s" s="5">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G65" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="F65" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="6">
+      <c r="I65" s="7"/>
+      <c r="J65" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="66" ht="13.55" customHeight="1">
       <c r="A66" t="s" s="5">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D66" t="s" s="5">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E66" t="s" s="5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6">
+        <v>48</v>
+      </c>
+      <c r="G66" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="6">
         <v>2014</v>
       </c>
     </row>
     <row r="67" ht="13.55" customHeight="1">
       <c r="A67" t="s" s="5">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C67" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D67" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E67" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="6">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="68" ht="13.55" customHeight="1">
       <c r="A68" t="s" s="5">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s" s="5">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s" s="5">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="E68" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F68" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G68" s="6">
-        <v>10</v>
-      </c>
-      <c r="H68" s="6">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="69" ht="13.55" customHeight="1">
       <c r="A69" t="s" s="5">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s" s="5">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="D69" t="s" s="5">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="70" ht="13.55" customHeight="1">
       <c r="A70" t="s" s="5">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B70" t="s" s="5">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s" s="5">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D70" t="s" s="5">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="E70" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="6">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="71" ht="13.55" customHeight="1">
       <c r="A71" t="s" s="5">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s" s="5">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="E71" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="6">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="72" ht="13.55" customHeight="1">
       <c r="A72" t="s" s="5">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D72" t="s" s="5">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="6">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="73" ht="13.55" customHeight="1">
       <c r="A73" t="s" s="5">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s" s="5">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="D73" t="s" s="5">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="E73" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F73" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="74" ht="13.55" customHeight="1">
       <c r="A74" t="s" s="5">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="C74" t="s" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s" s="5">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="E74" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="6">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="75" ht="13.55" customHeight="1">
       <c r="A75" t="s" s="5">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s" s="5">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="D75" t="s" s="5">
-        <v>198</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="76" ht="13.55" customHeight="1">
       <c r="A76" t="s" s="5">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C76" t="s" s="5">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s" s="5">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E76" t="s" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="6">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I76" s="6">
+        <v>10</v>
+      </c>
+      <c r="J76" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="77" ht="13.55" customHeight="1">
       <c r="A77" t="s" s="5">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C77" t="s" s="5">
+        <v>211</v>
+      </c>
+      <c r="D77" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="E77" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="H77" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I77" s="6">
         <v>10</v>
       </c>
-      <c r="D77" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="E77" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F77" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="6">
+      <c r="J77" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="78" ht="13.55" customHeight="1">
       <c r="A78" t="s" s="5">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s" s="5">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="D78" t="s" s="5">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="E78" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F78" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G78" s="6">
-        <v>10</v>
-      </c>
-      <c r="H78" s="6">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="79" ht="13.55" customHeight="1">
       <c r="A79" t="s" s="5">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s" s="5">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D79" t="s" s="5">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s" s="5">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G79" s="6">
-        <v>10</v>
-      </c>
-      <c r="H79" s="6">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="80" ht="13.55" customHeight="1">
       <c r="A80" t="s" s="5">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C80" t="s" s="5">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s" s="5">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="6">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="81" ht="13.55" customHeight="1">
       <c r="A81" t="s" s="5">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C81" t="s" s="5">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s" s="5">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F81" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="6">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I81" s="7"/>
+      <c r="J81" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="82" ht="13.55" customHeight="1">
       <c r="A82" t="s" s="5">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D82" t="s" s="5">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="E82" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F82" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="6">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="83" ht="13.55" customHeight="1">
       <c r="A83" t="s" s="5">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C83" t="s" s="5">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s" s="5">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F83" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="6">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="84" ht="13.55" customHeight="1">
       <c r="A84" t="s" s="5">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F84" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="6">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="85" ht="13.55" customHeight="1">
       <c r="A85" t="s" s="5">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C85" t="s" s="5">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s" s="5">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="6">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="86" ht="13.55" customHeight="1">
       <c r="A86" t="s" s="5">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C86" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="D86" t="s" s="5">
+        <v>157</v>
+      </c>
+      <c r="E86" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F86" t="s" s="5">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I86" s="6">
         <v>10</v>
       </c>
-      <c r="D86" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="E86" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="6">
+      <c r="J86" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="87" ht="13.55" customHeight="1">
       <c r="A87" t="s" s="5">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C87" t="s" s="5">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="D87" t="s" s="5">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E87" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="6">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="88" ht="13.55" customHeight="1">
       <c r="A88" t="s" s="5">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C88" t="s" s="5">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D88" t="s" s="5">
-        <v>151</v>
+        <v>71</v>
       </c>
       <c r="E88" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G88" s="6">
-        <v>10</v>
-      </c>
-      <c r="H88" s="6">
+        <v>48</v>
+      </c>
+      <c r="G88" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="89" ht="13.55" customHeight="1">
       <c r="A89" t="s" s="5">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C89" t="s" s="5">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s" s="5">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="E89" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="6">
+        <v>48</v>
+      </c>
+      <c r="G89" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I89" s="6">
+        <v>10</v>
+      </c>
+      <c r="J89" s="6">
         <v>2015</v>
       </c>
     </row>
     <row r="90" ht="13.55" customHeight="1">
       <c r="A90" t="s" s="5">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C90" t="s" s="5">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s" s="5">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="E90" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="6">
+        <v>48</v>
+      </c>
+      <c r="G90" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I90" s="6">
+        <v>10</v>
+      </c>
+      <c r="J90" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="91" ht="13.55" customHeight="1">
       <c r="A91" t="s" s="5">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C91" t="s" s="5">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D91" t="s" s="5">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="E91" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F91" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="6">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H91" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I91" s="7"/>
+      <c r="J91" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="92" ht="13.55" customHeight="1">
       <c r="A92" t="s" s="5">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s" s="5">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="D92" t="s" s="5">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="E92" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F92" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="6">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I92" s="7"/>
+      <c r="J92" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="93" ht="13.55" customHeight="1">
       <c r="A93" t="s" s="5">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D93" t="s" s="5">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="E93" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="6">
+        <v>15</v>
+      </c>
+      <c r="G93" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I93" s="7"/>
+      <c r="J93" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="94" ht="13.55" customHeight="1">
       <c r="A94" t="s" s="5">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D94" t="s" s="5">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="E94" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="6">
+        <v>15</v>
+      </c>
+      <c r="G94" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I94" s="7"/>
+      <c r="J94" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="95" ht="13.55" customHeight="1">
       <c r="A95" t="s" s="5">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s" s="5">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E95" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="6">
+        <v>15</v>
+      </c>
+      <c r="G95" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H95" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I95" s="7"/>
+      <c r="J95" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="96" ht="13.55" customHeight="1">
       <c r="A96" t="s" s="5">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s" s="5">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F96" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="6">
+        <v>48</v>
+      </c>
+      <c r="G96" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I96" s="7"/>
+      <c r="J96" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="97" ht="13.55" customHeight="1">
       <c r="A97" t="s" s="5">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C97" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s" s="5">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="E97" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="6">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I97" s="7"/>
+      <c r="J97" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="98" ht="13.55" customHeight="1">
       <c r="A98" t="s" s="5">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C98" t="s" s="5">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s" s="5">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="E98" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F98" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G98" s="7"/>
-      <c r="H98" s="6">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I98" s="7"/>
+      <c r="J98" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="99" ht="13.55" customHeight="1">
       <c r="A99" t="s" s="5">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="C99" t="s" s="5">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D99" t="s" s="5">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="E99" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G99" s="6">
-        <v>10</v>
-      </c>
-      <c r="H99" s="6">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I99" s="7"/>
+      <c r="J99" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="100" ht="13.55" customHeight="1">
       <c r="A100" t="s" s="5">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C100" t="s" s="5">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D100" t="s" s="5">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E100" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="6">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I100" s="7"/>
+      <c r="J100" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="101" ht="13.55" customHeight="1">
       <c r="A101" t="s" s="5">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C101" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s" s="5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E101" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="6">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I101" s="7"/>
+      <c r="J101" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="102" ht="13.55" customHeight="1">
       <c r="A102" t="s" s="5">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B102" t="s" s="5">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s" s="5">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D102" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E102" t="s" s="5">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G102" s="7"/>
-      <c r="H102" s="6">
+        <v>15</v>
+      </c>
+      <c r="G102" t="s" s="5">
+        <v>268</v>
+      </c>
+      <c r="H102" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I102" s="7"/>
+      <c r="J102" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="103" ht="13.55" customHeight="1">
       <c r="A103" t="s" s="5">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B103" t="s" s="5">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C103" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s" s="5">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E103" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="6">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I103" s="7"/>
+      <c r="J103" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="104" ht="13.55" customHeight="1">
       <c r="A104" t="s" s="5">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B104" t="s" s="5">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s" s="5">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D104" t="s" s="5">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="6">
+        <v>15</v>
+      </c>
+      <c r="G104" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I104" s="7"/>
+      <c r="J104" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="105" ht="13.55" customHeight="1">
       <c r="A105" t="s" s="5">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B105" t="s" s="5">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C105" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E105" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F105" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="6">
+        <v>15</v>
+      </c>
+      <c r="G105" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I105" s="7"/>
+      <c r="J105" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="106" ht="13.55" customHeight="1">
       <c r="A106" t="s" s="5">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B106" t="s" s="5">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C106" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D106" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F106" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="6">
+        <v>15</v>
+      </c>
+      <c r="G106" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I106" s="7"/>
+      <c r="J106" s="6">
         <v>2016</v>
       </c>
     </row>
     <row r="107" ht="13.55" customHeight="1">
       <c r="A107" t="s" s="5">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B107" t="s" s="5">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C107" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D107" t="s" s="5">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G107" s="6">
+        <v>48</v>
+      </c>
+      <c r="G107" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I107" s="6">
         <v>10</v>
       </c>
-      <c r="H107" s="6">
+      <c r="J107" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="108" ht="13.55" customHeight="1">
       <c r="A108" t="s" s="5">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C108" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D108" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E108" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F108" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="6">
+        <v>15</v>
+      </c>
+      <c r="G108" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H108" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I108" s="7"/>
+      <c r="J108" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="109" ht="13.55" customHeight="1">
       <c r="A109" t="s" s="5">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D109" t="s" s="5">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E109" t="s" s="5">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G109" s="7"/>
-      <c r="H109" s="6">
+        <v>15</v>
+      </c>
+      <c r="G109" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H109" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I109" s="7"/>
+      <c r="J109" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="110" ht="13.55" customHeight="1">
       <c r="A110" t="s" s="5">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D110" t="s" s="5">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E110" t="s" s="5">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="F110" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G110" s="6">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H110" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I110" s="6">
         <v>10</v>
       </c>
-      <c r="H110" s="6">
+      <c r="J110" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="111" ht="13.55" customHeight="1">
       <c r="A111" t="s" s="5">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C111" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D111" t="s" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E111" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F111" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="6">
+        <v>15</v>
+      </c>
+      <c r="G111" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H111" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I111" s="7"/>
+      <c r="J111" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="112" ht="13.55" customHeight="1">
       <c r="A112" t="s" s="5">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C112" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D112" t="s" s="5">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E112" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F112" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="6">
+        <v>48</v>
+      </c>
+      <c r="G112" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I112" s="7"/>
+      <c r="J112" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="113" ht="13.55" customHeight="1">
       <c r="A113" t="s" s="5">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C113" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s" s="5">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E113" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F113" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="6">
+        <v>48</v>
+      </c>
+      <c r="G113" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H113" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I113" s="7"/>
+      <c r="J113" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="114" ht="13.55" customHeight="1">
       <c r="A114" t="s" s="5">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D114" t="s" s="5">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E114" t="s" s="5">
-        <v>156</v>
+        <v>14</v>
       </c>
       <c r="F114" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="6">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="H114" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I114" s="7"/>
+      <c r="J114" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="115" ht="13.55" customHeight="1">
       <c r="A115" t="s" s="5">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s" s="5">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C115" t="s" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D115" t="s" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E115" t="s" s="5">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F115" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="6">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s" s="5">
+        <v>32</v>
+      </c>
+      <c r="H115" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I115" s="7"/>
+      <c r="J115" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="116" ht="13.55" customHeight="1">
       <c r="A116" t="s" s="5">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C116" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s" s="5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E116" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F116" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="6">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H116" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I116" s="7"/>
+      <c r="J116" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="117" ht="13.55" customHeight="1">
       <c r="A117" t="s" s="5">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B117" t="s" s="5">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C117" t="s" s="5">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D117" t="s" s="5">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E117" t="s" s="5">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F117" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G117" s="6">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="H117" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I117" s="6">
         <v>10</v>
       </c>
-      <c r="H117" s="6">
+      <c r="J117" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="118" ht="13.55" customHeight="1">
       <c r="A118" t="s" s="5">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C118" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D118" t="s" s="5">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E118" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F118" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G118" s="7"/>
-      <c r="H118" s="6">
+        <v>48</v>
+      </c>
+      <c r="G118" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H118" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I118" s="7"/>
+      <c r="J118" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="119" ht="13.55" customHeight="1">
       <c r="A119" t="s" s="5">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D119" t="s" s="5">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E119" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G119" s="7"/>
-      <c r="H119" s="6">
+        <v>48</v>
+      </c>
+      <c r="G119" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I119" s="7"/>
+      <c r="J119" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="120" ht="13.55" customHeight="1">
       <c r="A120" t="s" s="5">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C120" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s" s="5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E120" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F120" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G120" s="7"/>
-      <c r="H120" s="6">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H120" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I120" s="7"/>
+      <c r="J120" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="121" ht="13.55" customHeight="1">
       <c r="A121" t="s" s="5">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C121" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D121" t="s" s="5">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E121" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G121" s="7"/>
-      <c r="H121" s="6">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H121" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I121" s="7"/>
+      <c r="J121" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="122" ht="13.55" customHeight="1">
       <c r="A122" t="s" s="5">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D122" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E122" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F122" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="6">
+        <v>15</v>
+      </c>
+      <c r="G122" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H122" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I122" s="7"/>
+      <c r="J122" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="123" ht="13.55" customHeight="1">
       <c r="A123" t="s" s="5">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B123" t="s" s="5">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="C123" t="s" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D123" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E123" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F123" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="6">
+        <v>48</v>
+      </c>
+      <c r="G123" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H123" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I123" s="7"/>
+      <c r="J123" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="124" ht="13.55" customHeight="1">
       <c r="A124" t="s" s="5">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C124" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D124" t="s" s="5">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E124" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F124" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="6">
+        <v>48</v>
+      </c>
+      <c r="G124" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H124" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I124" s="7"/>
+      <c r="J124" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="125" ht="13.55" customHeight="1">
       <c r="A125" t="s" s="5">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C125" t="s" s="5">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D125" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E125" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G125" s="6">
+        <v>48</v>
+      </c>
+      <c r="G125" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H125" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I125" s="6">
         <v>10</v>
       </c>
-      <c r="H125" s="6">
+      <c r="J125" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="126" ht="13.55" customHeight="1">
       <c r="A126" t="s" s="5">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D126" t="s" s="5">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E126" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F126" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G126" s="7"/>
-      <c r="H126" s="6">
+        <v>15</v>
+      </c>
+      <c r="G126" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I126" s="7"/>
+      <c r="J126" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="127" ht="13.55" customHeight="1">
       <c r="A127" t="s" s="5">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C127" t="s" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s" s="5">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E127" t="s" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F127" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G127" s="7"/>
-      <c r="H127" s="6">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I127" s="7"/>
+      <c r="J127" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="128" ht="13.55" customHeight="1">
       <c r="A128" t="s" s="5">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D128" t="s" s="5">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E128" t="s" s="5">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="F128" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="6">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H128" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I128" s="7"/>
+      <c r="J128" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="129" ht="13.55" customHeight="1">
       <c r="A129" t="s" s="5">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D129" t="s" s="5">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E129" t="s" s="5">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="6">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H129" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I129" s="7"/>
+      <c r="J129" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="130" ht="13.55" customHeight="1">
       <c r="A130" t="s" s="5">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D130" t="s" s="5">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E130" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F130" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="6">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H130" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I130" s="7"/>
+      <c r="J130" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="131" ht="13.55" customHeight="1">
       <c r="A131" t="s" s="5">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B131" t="s" s="5">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="C131" t="s" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D131" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="6">
+        <v>48</v>
+      </c>
+      <c r="G131" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H131" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I131" s="7"/>
+      <c r="J131" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="132" ht="13.55" customHeight="1">
       <c r="A132" t="s" s="5">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B132" t="s" s="5">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="C132" t="s" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D132" t="s" s="5">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="E132" t="s" s="5">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F132" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="6">
+        <v>48</v>
+      </c>
+      <c r="G132" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H132" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I132" s="7"/>
+      <c r="J132" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="133" ht="13.55" customHeight="1">
       <c r="A133" t="s" s="5">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D133" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E133" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F133" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="6">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H133" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I133" s="7"/>
+      <c r="J133" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="134" ht="13.55" customHeight="1">
       <c r="A134" t="s" s="5">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C134" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E134" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F134" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="6">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H134" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I134" s="7"/>
+      <c r="J134" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="135" ht="13.55" customHeight="1">
       <c r="A135" t="s" s="5">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C135" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D135" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E135" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F135" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G135" s="7"/>
-      <c r="H135" s="6">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H135" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I135" s="7"/>
+      <c r="J135" s="6">
         <v>2018</v>
       </c>
     </row>
     <row r="136" ht="13.55" customHeight="1">
       <c r="A136" t="s" s="5">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C136" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D136" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E136" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="6">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H136" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I136" s="7"/>
+      <c r="J136" s="6">
         <v>2019</v>
       </c>
     </row>
     <row r="137" ht="13.55" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D137" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E137" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F137" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G137" s="6">
+        <v>15</v>
+      </c>
+      <c r="G137" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H137" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I137" s="6">
         <v>10</v>
       </c>
-      <c r="H137" s="6">
+      <c r="J137" s="6">
         <v>2019</v>
       </c>
     </row>
     <row r="138" ht="13.55" customHeight="1">
       <c r="A138" t="s" s="5">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C138" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E138" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F138" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="6">
+        <v>48</v>
+      </c>
+      <c r="G138" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H138" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I138" s="7"/>
+      <c r="J138" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="139" ht="13.55" customHeight="1">
       <c r="A139" t="s" s="5">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C139" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D139" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E139" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="6">
+        <v>15</v>
+      </c>
+      <c r="G139" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I139" s="7"/>
+      <c r="J139" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="140" ht="13.55" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C140" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D140" t="s" s="5">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E140" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F140" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G140" s="6">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I140" s="6">
         <v>10</v>
       </c>
-      <c r="H140" s="6">
+      <c r="J140" s="6">
         <v>2021</v>
       </c>
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="5">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B141" t="s" s="5">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C141" t="s" s="5">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D141" t="s" s="5">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E141" t="s" s="5">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="F141" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G141" s="7"/>
-      <c r="H141" s="6">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s" s="5">
+        <v>212</v>
+      </c>
+      <c r="H141" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I141" s="7"/>
+      <c r="J141" s="6">
         <v>2021</v>
       </c>
     </row>
     <row r="142" ht="13.55" customHeight="1">
       <c r="A142" t="s" s="5">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D142" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E142" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G142" s="7"/>
-      <c r="H142" s="6">
+        <v>48</v>
+      </c>
+      <c r="G142" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I142" s="7"/>
+      <c r="J142" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="143" ht="13.55" customHeight="1">
       <c r="A143" t="s" s="5">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C143" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D143" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E143" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F143" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G143" s="7"/>
-      <c r="H143" s="6">
+        <v>48</v>
+      </c>
+      <c r="G143" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I143" s="7"/>
+      <c r="J143" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="144" ht="13.55" customHeight="1">
       <c r="A144" t="s" s="5">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C144" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D144" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E144" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F144" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G144" s="7"/>
-      <c r="H144" s="6">
+        <v>48</v>
+      </c>
+      <c r="G144" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I144" s="7"/>
+      <c r="J144" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="145" ht="13.55" customHeight="1">
       <c r="A145" t="s" s="5">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B145" t="s" s="5">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C145" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D145" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E145" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F145" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G145" s="7"/>
-      <c r="H145" s="6">
+        <v>48</v>
+      </c>
+      <c r="G145" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I145" s="7"/>
+      <c r="J145" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" t="s" s="5">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D146" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E146" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F146" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G146" s="7"/>
-      <c r="H146" s="6">
+        <v>48</v>
+      </c>
+      <c r="G146" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H146" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I146" s="7"/>
+      <c r="J146" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="147" ht="13.55" customHeight="1">
       <c r="A147" t="s" s="5">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D147" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E147" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F147" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G147" s="7"/>
-      <c r="H147" s="6">
+        <v>48</v>
+      </c>
+      <c r="G147" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H147" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I147" s="7"/>
+      <c r="J147" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="148" ht="13.55" customHeight="1">
       <c r="A148" t="s" s="5">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D148" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E148" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F148" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G148" s="6">
+        <v>48</v>
+      </c>
+      <c r="G148" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H148" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I148" s="6">
         <v>10</v>
       </c>
-      <c r="H148" s="6">
+      <c r="J148" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="149" ht="13.55" customHeight="1">
       <c r="A149" t="s" s="5">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C149" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D149" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E149" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F149" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G149" s="6">
+        <v>48</v>
+      </c>
+      <c r="G149" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H149" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I149" s="6">
         <v>10</v>
       </c>
-      <c r="H149" s="6">
+      <c r="J149" s="6">
         <v>2022</v>
       </c>
     </row>
     <row r="150" ht="13.55" customHeight="1">
       <c r="A150" t="s" s="5">
+        <v>363</v>
+      </c>
+      <c r="B150" t="s" s="5">
+        <v>362</v>
+      </c>
+      <c r="C150" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="D150" t="s" s="5">
         <v>358</v>
       </c>
-      <c r="B150" t="s" s="5">
-        <v>357</v>
-      </c>
-      <c r="C150" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="D150" t="s" s="5">
-        <v>61</v>
-      </c>
       <c r="E150" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F150" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G150" s="6">
+        <v>48</v>
+      </c>
+      <c r="G150" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H150" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I150" s="6">
         <v>10</v>
       </c>
-      <c r="H150" s="6">
+      <c r="J150" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="5">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B151" t="s" s="5">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C151" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D151" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E151" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F151" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G151" s="7"/>
-      <c r="H151" s="6">
+        <v>48</v>
+      </c>
+      <c r="G151" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H151" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I151" s="7"/>
+      <c r="J151" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="152" ht="13.55" customHeight="1">
       <c r="A152" t="s" s="5">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B152" t="s" s="5">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C152" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D152" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E152" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F152" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G152" s="7"/>
-      <c r="H152" s="6">
+        <v>48</v>
+      </c>
+      <c r="G152" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H152" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I152" s="7"/>
+      <c r="J152" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="153" ht="13.55" customHeight="1">
       <c r="A153" t="s" s="5">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B153" t="s" s="5">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C153" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E153" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F153" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G153" s="7"/>
-      <c r="H153" s="6">
+        <v>48</v>
+      </c>
+      <c r="G153" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I153" s="7"/>
+      <c r="J153" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="154" ht="13.55" customHeight="1">
       <c r="A154" t="s" s="5">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B154" t="s" s="5">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C154" t="s" s="5">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D154" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E154" t="s" s="5">
-        <v>366</v>
+        <v>14</v>
       </c>
       <c r="F154" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G154" s="6">
+        <v>48</v>
+      </c>
+      <c r="G154" t="s" s="5">
+        <v>371</v>
+      </c>
+      <c r="H154" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I154" s="6">
         <v>10</v>
       </c>
-      <c r="H154" s="6">
+      <c r="J154" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="155" ht="13.55" customHeight="1">
       <c r="A155" t="s" s="5">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B155" t="s" s="5">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C155" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D155" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E155" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F155" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G155" s="6">
+        <v>48</v>
+      </c>
+      <c r="G155" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I155" s="6">
         <v>10</v>
       </c>
-      <c r="H155" s="6">
+      <c r="J155" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="156" ht="13.55" customHeight="1">
       <c r="A156" t="s" s="5">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B156" t="s" s="5">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C156" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D156" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E156" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F156" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="6">
+        <v>48</v>
+      </c>
+      <c r="G156" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H156" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I156" s="7"/>
+      <c r="J156" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="157" ht="13.55" customHeight="1">
       <c r="A157" t="s" s="5">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B157" t="s" s="5">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C157" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D157" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E157" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G157" s="6">
+        <v>48</v>
+      </c>
+      <c r="G157" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H157" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I157" s="6">
         <v>10</v>
       </c>
-      <c r="H157" s="6">
+      <c r="J157" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="158" ht="13.55" customHeight="1">
       <c r="A158" t="s" s="5">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B158" t="s" s="5">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C158" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E158" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F158" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G158" s="7"/>
-      <c r="H158" s="6">
+        <v>48</v>
+      </c>
+      <c r="G158" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H158" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I158" s="7"/>
+      <c r="J158" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="159" ht="13.55" customHeight="1">
       <c r="A159" t="s" s="5">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B159" t="s" s="5">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C159" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D159" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="E159" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F159" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="G159" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H159" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I159" s="6">
         <v>10</v>
       </c>
-      <c r="D159" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="E159" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F159" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G159" s="6">
-        <v>10</v>
-      </c>
-      <c r="H159" s="6">
+      <c r="J159" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="160" ht="13.55" customHeight="1">
       <c r="A160" t="s" s="5">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B160" t="s" s="5">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C160" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D160" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E160" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G160" s="7"/>
-      <c r="H160" s="6">
+        <v>48</v>
+      </c>
+      <c r="G160" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H160" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I160" s="7"/>
+      <c r="J160" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="161" ht="13.55" customHeight="1">
       <c r="A161" t="s" s="5">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B161" t="s" s="5">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C161" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D161" t="s" s="5">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="E161" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F161" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G161" s="6">
+        <v>48</v>
+      </c>
+      <c r="G161" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H161" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I161" s="6">
         <v>10</v>
       </c>
-      <c r="H161" s="6">
+      <c r="J161" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="162" ht="13.55" customHeight="1">
       <c r="A162" t="s" s="5">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B162" t="s" s="5">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C162" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D162" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E162" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F162" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G162" s="6">
+        <v>48</v>
+      </c>
+      <c r="G162" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I162" s="6">
         <v>10</v>
       </c>
-      <c r="H162" s="6">
+      <c r="J162" s="6">
         <v>2023</v>
       </c>
     </row>
     <row r="163" ht="13.55" customHeight="1">
       <c r="A163" t="s" s="5">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B163" t="s" s="5">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C163" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D163" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E163" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G163" s="7"/>
-      <c r="H163" s="6">
+        <v>48</v>
+      </c>
+      <c r="G163" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I163" s="7"/>
+      <c r="J163" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="164" ht="13.55" customHeight="1">
       <c r="A164" t="s" s="5">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B164" t="s" s="5">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C164" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D164" t="s" s="5">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E164" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F164" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="6">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H164" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I164" s="7"/>
+      <c r="J164" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="165" ht="13.55" customHeight="1">
       <c r="A165" t="s" s="5">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B165" t="s" s="5">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C165" t="s" s="5">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D165" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E165" t="s" s="5">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="F165" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G165" s="7"/>
-      <c r="H165" s="6">
+        <v>48</v>
+      </c>
+      <c r="G165" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H165" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I165" s="7"/>
+      <c r="J165" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="166" ht="13.55" customHeight="1">
       <c r="A166" t="s" s="5">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B166" t="s" s="5">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C166" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D166" t="s" s="5">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="E166" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F166" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G166" s="7"/>
-      <c r="H166" s="6">
+        <v>48</v>
+      </c>
+      <c r="G166" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H166" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I166" s="7"/>
+      <c r="J166" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="167" ht="13.55" customHeight="1">
       <c r="A167" t="s" s="5">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B167" t="s" s="5">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="C167" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E167" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F167" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G167" s="7"/>
-      <c r="H167" s="6">
+        <v>48</v>
+      </c>
+      <c r="G167" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H167" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I167" s="7"/>
+      <c r="J167" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="168" ht="13.55" customHeight="1">
       <c r="A168" t="s" s="5">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B168" t="s" s="5">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C168" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E168" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F168" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G168" s="7"/>
-      <c r="H168" s="6">
+        <v>48</v>
+      </c>
+      <c r="G168" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I168" s="7"/>
+      <c r="J168" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="169" ht="13.55" customHeight="1">
       <c r="A169" t="s" s="5">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B169" t="s" s="5">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C169" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E169" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G169" s="7"/>
-      <c r="H169" s="6">
+        <v>48</v>
+      </c>
+      <c r="G169" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I169" s="7"/>
+      <c r="J169" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="170" ht="13.55" customHeight="1">
       <c r="A170" t="s" s="5">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B170" t="s" s="5">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C170" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E170" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F170" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G170" s="7"/>
-      <c r="H170" s="6">
+        <v>48</v>
+      </c>
+      <c r="G170" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I170" s="7"/>
+      <c r="J170" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="171" ht="13.55" customHeight="1">
       <c r="A171" t="s" s="5">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B171" t="s" s="5">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C171" t="s" s="5">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D171" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E171" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F171" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G171" s="7"/>
-      <c r="H171" s="6">
+        <v>48</v>
+      </c>
+      <c r="G171" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H171" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I171" s="7"/>
+      <c r="J171" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="5">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B172" t="s" s="5">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C172" t="s" s="5">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D172" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E172" t="s" s="5">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="6">
+        <v>48</v>
+      </c>
+      <c r="G172" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H172" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I172" s="7"/>
+      <c r="J172" s="6">
         <v>2024</v>
       </c>
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="5">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B173" t="s" s="5">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C173" t="s" s="5">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D173" t="s" s="5">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E173" t="s" s="5">
-        <v>405</v>
+        <v>27</v>
       </c>
       <c r="F173" t="s" s="5">
-        <v>405</v>
-      </c>
-      <c r="G173" s="7"/>
-      <c r="H173" s="6">
+        <v>15</v>
+      </c>
+      <c r="G173" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="H173" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="I173" s="7"/>
+      <c r="J173" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="174" ht="13.55" customHeight="1">
       <c r="A174" t="s" s="5">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B174" t="s" s="5">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C174" t="s" s="5">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D174" t="s" s="5">
-        <v>408</v>
+        <v>146</v>
       </c>
       <c r="E174" t="s" s="5">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="F174" t="s" s="5">
-        <v>405</v>
-      </c>
-      <c r="G174" s="7"/>
-      <c r="H174" s="6">
+        <v>48</v>
+      </c>
+      <c r="G174" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="H174" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="I174" s="7"/>
+      <c r="J174" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="175" ht="13.55" customHeight="1">
       <c r="A175" t="s" s="5">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B175" t="s" s="5">
+        <v>414</v>
+      </c>
+      <c r="C175" t="s" s="5">
+        <v>227</v>
+      </c>
+      <c r="D175" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="E175" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F175" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="G175" t="s" s="5">
         <v>410</v>
       </c>
-      <c r="C175" t="s" s="5">
-        <v>224</v>
-      </c>
-      <c r="D175" t="s" s="5">
-        <v>408</v>
-      </c>
-      <c r="E175" t="s" s="5">
-        <v>405</v>
-      </c>
-      <c r="F175" t="s" s="5">
-        <v>405</v>
-      </c>
-      <c r="G175" s="7"/>
-      <c r="H175" s="6">
+      <c r="H175" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="I175" s="7"/>
+      <c r="J175" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="176" ht="13.55" customHeight="1">
       <c r="A176" t="s" s="5">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B176" t="s" s="5">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C176" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E176" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G176" s="6">
+        <v>48</v>
+      </c>
+      <c r="G176" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I176" s="6">
         <v>10</v>
       </c>
-      <c r="H176" s="6">
+      <c r="J176" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="177" ht="13.55" customHeight="1">
       <c r="A177" t="s" s="5">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B177" t="s" s="5">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C177" t="s" s="5">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D177" t="s" s="5">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E177" t="s" s="5">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="F177" t="s" s="5">
-        <v>405</v>
-      </c>
-      <c r="G177" s="7"/>
-      <c r="H177" s="6">
+        <v>48</v>
+      </c>
+      <c r="G177" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="H177" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="I177" s="7"/>
+      <c r="J177" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="178" ht="13.55" customHeight="1">
       <c r="A178" t="s" s="5">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B178" t="s" s="5">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C178" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D178" t="s" s="5">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="E178" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F178" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G178" s="7"/>
-      <c r="H178" s="6">
+        <v>48</v>
+      </c>
+      <c r="G178" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I178" s="7"/>
+      <c r="J178" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="179" ht="13.55" customHeight="1">
       <c r="A179" t="s" s="5">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B179" t="s" s="5">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C179" t="s" s="5">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D179" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E179" t="s" s="5">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="F179" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G179" s="7"/>
-      <c r="H179" s="6">
+        <v>48</v>
+      </c>
+      <c r="G179" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H179" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I179" s="7"/>
+      <c r="J179" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="180" ht="13.55" customHeight="1">
       <c r="A180" t="s" s="5">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B180" t="s" s="5">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="C180" t="s" s="5">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D180" t="s" s="5">
-        <v>408</v>
+        <v>146</v>
       </c>
       <c r="E180" t="s" s="5">
-        <v>405</v>
+        <v>14</v>
       </c>
       <c r="F180" t="s" s="5">
-        <v>405</v>
-      </c>
-      <c r="G180" s="7"/>
-      <c r="H180" s="6">
+        <v>48</v>
+      </c>
+      <c r="G180" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="H180" t="s" s="5">
+        <v>410</v>
+      </c>
+      <c r="I180" s="7"/>
+      <c r="J180" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="181" ht="13.55" customHeight="1">
       <c r="A181" t="s" s="5">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B181" t="s" s="5">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C181" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D181" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E181" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F181" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G181" s="7"/>
-      <c r="H181" s="6">
+        <v>48</v>
+      </c>
+      <c r="G181" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H181" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I181" s="7"/>
+      <c r="J181" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="182" ht="13.55" customHeight="1">
       <c r="A182" t="s" s="5">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B182" t="s" s="5">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C182" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E182" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F182" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G182" s="6">
+        <v>48</v>
+      </c>
+      <c r="G182" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I182" s="6">
         <v>10</v>
       </c>
-      <c r="H182" s="6">
+      <c r="J182" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="183" ht="13.55" customHeight="1">
       <c r="A183" t="s" s="5">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B183" t="s" s="5">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C183" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s" s="5">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="E183" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F183" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G183" s="6">
+        <v>48</v>
+      </c>
+      <c r="G183" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I183" s="6">
         <v>10</v>
       </c>
-      <c r="H183" s="6">
+      <c r="J183" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="184" ht="13.55" customHeight="1">
       <c r="A184" t="s" s="5">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B184" t="s" s="5">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C184" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D184" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E184" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F184" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G184" s="6">
+        <v>48</v>
+      </c>
+      <c r="G184" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I184" s="6">
         <v>10</v>
       </c>
-      <c r="H184" s="6">
+      <c r="J184" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="185" ht="13.55" customHeight="1">
       <c r="A185" t="s" s="5">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B185" t="s" s="5">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C185" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D185" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E185" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F185" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G185" s="6">
+        <v>48</v>
+      </c>
+      <c r="G185" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I185" s="6">
         <v>10</v>
       </c>
-      <c r="H185" s="6">
+      <c r="J185" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="186" ht="13.55" customHeight="1">
       <c r="A186" t="s" s="5">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B186" t="s" s="5">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C186" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D186" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E186" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F186" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G186" s="6">
+        <v>48</v>
+      </c>
+      <c r="G186" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I186" s="6">
         <v>10</v>
       </c>
-      <c r="H186" s="6">
+      <c r="J186" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="187" ht="13.55" customHeight="1">
       <c r="A187" t="s" s="5">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B187" t="s" s="5">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C187" t="s" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D187" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E187" t="s" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F187" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="6">
+        <v>48</v>
+      </c>
+      <c r="G187" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H187" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I187" s="7"/>
+      <c r="J187" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="188" ht="13.55" customHeight="1">
       <c r="A188" t="s" s="5">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B188" t="s" s="5">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C188" t="s" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D188" t="s" s="5">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="E188" t="s" s="5">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F188" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="G188" s="7"/>
-      <c r="H188" s="6">
+        <v>48</v>
+      </c>
+      <c r="G188" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="H188" t="s" s="5">
+        <v>17</v>
+      </c>
+      <c r="I188" s="7"/>
+      <c r="J188" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="189" ht="13.55" customHeight="1">
       <c r="A189" t="s" s="5">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B189" t="s" s="5">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C189" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E189" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F189" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G189" s="6">
+        <v>48</v>
+      </c>
+      <c r="G189" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I189" s="6">
         <v>10</v>
       </c>
-      <c r="H189" s="6">
+      <c r="J189" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="190" ht="13.55" customHeight="1">
       <c r="A190" t="s" s="5">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B190" t="s" s="5">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C190" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D190" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E190" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F190" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G190" s="6">
+        <v>48</v>
+      </c>
+      <c r="G190" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I190" s="6">
         <v>10</v>
       </c>
-      <c r="H190" s="6">
+      <c r="J190" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="191" ht="13.55" customHeight="1">
       <c r="A191" t="s" s="5">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B191" t="s" s="5">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C191" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D191" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E191" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F191" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G191" s="6">
+        <v>48</v>
+      </c>
+      <c r="G191" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I191" s="6">
         <v>10</v>
       </c>
-      <c r="H191" s="6">
+      <c r="J191" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="192" ht="13.55" customHeight="1">
       <c r="A192" t="s" s="5">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B192" t="s" s="5">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C192" t="s" s="5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D192" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E192" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F192" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G192" s="7"/>
-      <c r="H192" s="6">
+        <v>48</v>
+      </c>
+      <c r="G192" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I192" s="7"/>
+      <c r="J192" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="193" ht="13.55" customHeight="1">
       <c r="A193" t="s" s="5">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B193" t="s" s="5">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C193" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D193" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E193" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F193" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G193" s="7"/>
-      <c r="H193" s="6">
+        <v>48</v>
+      </c>
+      <c r="G193" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I193" s="7"/>
+      <c r="J193" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="194" ht="13.55" customHeight="1">
       <c r="A194" t="s" s="5">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B194" t="s" s="5">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C194" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D194" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E194" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F194" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G194" s="7"/>
-      <c r="H194" s="6">
+        <v>48</v>
+      </c>
+      <c r="G194" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I194" s="7"/>
+      <c r="J194" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="195" ht="13.55" customHeight="1">
       <c r="A195" t="s" s="5">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B195" t="s" s="5">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C195" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D195" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E195" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F195" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G195" s="7"/>
-      <c r="H195" s="6">
+        <v>48</v>
+      </c>
+      <c r="G195" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I195" s="7"/>
+      <c r="J195" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="196" ht="13.55" customHeight="1">
       <c r="A196" t="s" s="5">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B196" t="s" s="5">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C196" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D196" t="s" s="5">
-        <v>61</v>
+        <v>358</v>
       </c>
       <c r="E196" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F196" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G196" s="6">
+        <v>48</v>
+      </c>
+      <c r="G196" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H196" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I196" s="6">
         <v>10</v>
       </c>
-      <c r="H196" s="6">
+      <c r="J196" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="197" ht="13.55" customHeight="1">
       <c r="A197" t="s" s="5">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B197" t="s" s="5">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C197" t="s" s="5">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D197" t="s" s="5">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="E197" t="s" s="5">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="F197" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G197" s="7"/>
-      <c r="H197" s="6">
+        <v>48</v>
+      </c>
+      <c r="G197" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="H197" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I197" s="7"/>
+      <c r="J197" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="198" ht="13.55" customHeight="1">
       <c r="A198" t="s" s="5">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B198" t="s" s="5">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C198" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D198" t="s" s="5">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="E198" t="s" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F198" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G198" s="6">
+        <v>48</v>
+      </c>
+      <c r="G198" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H198" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I198" s="6">
         <v>10</v>
       </c>
-      <c r="H198" s="6">
+      <c r="J198" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="199" ht="13.55" customHeight="1">
       <c r="A199" t="s" s="5">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B199" t="s" s="5">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C199" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E199" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F199" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G199" s="7"/>
-      <c r="H199" s="6">
+        <v>48</v>
+      </c>
+      <c r="G199" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H199" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I199" s="7"/>
+      <c r="J199" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="200" ht="13.55" customHeight="1">
       <c r="A200" t="s" s="5">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B200" t="s" s="5">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C200" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D200" t="s" s="5">
+        <v>71</v>
+      </c>
+      <c r="E200" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="G200" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H200" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I200" s="6">
         <v>10</v>
       </c>
-      <c r="D200" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="E200" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="F200" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G200" s="6">
-        <v>10</v>
-      </c>
-      <c r="H200" s="6">
+      <c r="J200" s="6">
         <v>2025</v>
       </c>
     </row>
     <row r="201" ht="13.55" customHeight="1">
       <c r="A201" t="s" s="5">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B201" t="s" s="5">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C201" t="s" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D201" t="s" s="5">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E201" t="s" s="5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F201" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="G201" s="6">
+        <v>48</v>
+      </c>
+      <c r="G201" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H201" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I201" s="6">
         <v>10</v>
       </c>
-      <c r="H201" s="6">
+      <c r="J201" s="6">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="202" ht="13.55" customHeight="1">
+      <c r="A202" t="s" s="5">
+        <v>461</v>
+      </c>
+      <c r="B202" t="s" s="5">
+        <v>422</v>
+      </c>
+      <c r="C202" t="s" s="5">
+        <v>393</v>
+      </c>
+      <c r="D202" t="s" s="5">
+        <v>358</v>
+      </c>
+      <c r="E202" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="G202" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="H202" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I202" s="7"/>
+      <c r="J202" s="6">
         <v>2025</v>
       </c>
     </row>

--- a/data/20251011_book_record.xlsx
+++ b/data/20251011_book_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
   <si>
     <t>title</t>
   </si>
@@ -850,6 +850,9 @@
     <t>Ted Chiang</t>
   </si>
   <si>
+    <t>Science Fiction, Speculative Fiction</t>
+  </si>
+  <si>
     <t>Chaos: A Very Short Introduction</t>
   </si>
   <si>
@@ -1100,6 +1103,9 @@
   </si>
   <si>
     <t>Ursula K. Le Guin</t>
+  </si>
+  <si>
+    <t>Classic, Science Fiction, Speculative Fiction</t>
   </si>
   <si>
     <t>The Dispossessed</t>
@@ -2616,7 +2622,7 @@
     <col min="1" max="1" width="51.1562" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5312" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.4141" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6406" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6719" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.6719" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.3516" style="1" customWidth="1"/>
@@ -5842,7 +5848,7 @@
         <v>25</v>
       </c>
       <c r="D107" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E107" t="s" s="5">
         <v>27</v>
@@ -5865,10 +5871,10 @@
     </row>
     <row r="108" ht="13.55" customHeight="1">
       <c r="A108" t="s" s="5">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B108" t="s" s="5">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C108" t="s" s="5">
         <v>12</v>
@@ -5895,13 +5901,13 @@
     </row>
     <row r="109" ht="13.55" customHeight="1">
       <c r="A109" t="s" s="5">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B109" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C109" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D109" t="s" s="5">
         <v>157</v>
@@ -5913,7 +5919,7 @@
         <v>15</v>
       </c>
       <c r="G109" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H109" t="s" s="5">
         <v>16</v>
@@ -5925,13 +5931,13 @@
     </row>
     <row r="110" ht="13.55" customHeight="1">
       <c r="A110" t="s" s="5">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B110" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C110" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D110" t="s" s="5">
         <v>157</v>
@@ -5943,7 +5949,7 @@
         <v>15</v>
       </c>
       <c r="G110" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H110" t="s" s="5">
         <v>16</v>
@@ -5957,10 +5963,10 @@
     </row>
     <row r="111" ht="13.55" customHeight="1">
       <c r="A111" t="s" s="5">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B111" t="s" s="5">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C111" t="s" s="5">
         <v>25</v>
@@ -5987,16 +5993,16 @@
     </row>
     <row r="112" ht="13.55" customHeight="1">
       <c r="A112" t="s" s="5">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B112" t="s" s="5">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C112" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D112" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E112" t="s" s="5">
         <v>14</v>
@@ -6017,16 +6023,16 @@
     </row>
     <row r="113" ht="13.55" customHeight="1">
       <c r="A113" t="s" s="5">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B113" t="s" s="5">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C113" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D113" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E113" t="s" s="5">
         <v>14</v>
@@ -6047,13 +6053,13 @@
     </row>
     <row r="114" ht="13.55" customHeight="1">
       <c r="A114" t="s" s="5">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B114" t="s" s="5">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C114" t="s" s="5">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D114" t="s" s="5">
         <v>136</v>
@@ -6077,7 +6083,7 @@
     </row>
     <row r="115" ht="13.55" customHeight="1">
       <c r="A115" t="s" s="5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B115" t="s" s="5">
         <v>129</v>
@@ -6107,10 +6113,10 @@
     </row>
     <row r="116" ht="13.55" customHeight="1">
       <c r="A116" t="s" s="5">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B116" t="s" s="5">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C116" t="s" s="5">
         <v>12</v>
@@ -6137,7 +6143,7 @@
     </row>
     <row r="117" ht="13.55" customHeight="1">
       <c r="A117" t="s" s="5">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B117" t="s" s="5">
         <v>210</v>
@@ -6169,16 +6175,16 @@
     </row>
     <row r="118" ht="13.55" customHeight="1">
       <c r="A118" t="s" s="5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B118" t="s" s="5">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C118" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D118" t="s" s="5">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E118" t="s" s="5">
         <v>14</v>
@@ -6199,16 +6205,16 @@
     </row>
     <row r="119" ht="13.55" customHeight="1">
       <c r="A119" t="s" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B119" t="s" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C119" t="s" s="5">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D119" t="s" s="5">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E119" t="s" s="5">
         <v>14</v>
@@ -6229,10 +6235,10 @@
     </row>
     <row r="120" ht="13.55" customHeight="1">
       <c r="A120" t="s" s="5">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s" s="5">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s" s="5">
         <v>25</v>
@@ -6259,10 +6265,10 @@
     </row>
     <row r="121" ht="13.55" customHeight="1">
       <c r="A121" t="s" s="5">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B121" t="s" s="5">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C121" t="s" s="5">
         <v>12</v>
@@ -6289,13 +6295,13 @@
     </row>
     <row r="122" ht="13.55" customHeight="1">
       <c r="A122" t="s" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B122" t="s" s="5">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s" s="5">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s" s="5">
         <v>56</v>
@@ -6319,7 +6325,7 @@
     </row>
     <row r="123" ht="13.55" customHeight="1">
       <c r="A123" t="s" s="5">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B123" t="s" s="5">
         <v>238</v>
@@ -6349,16 +6355,16 @@
     </row>
     <row r="124" ht="13.55" customHeight="1">
       <c r="A124" t="s" s="5">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B124" t="s" s="5">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C124" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D124" t="s" s="5">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E124" t="s" s="5">
         <v>14</v>
@@ -6379,10 +6385,10 @@
     </row>
     <row r="125" ht="13.55" customHeight="1">
       <c r="A125" t="s" s="5">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B125" t="s" s="5">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C125" t="s" s="5">
         <v>120</v>
@@ -6411,13 +6417,13 @@
     </row>
     <row r="126" ht="13.55" customHeight="1">
       <c r="A126" t="s" s="5">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B126" t="s" s="5">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C126" t="s" s="5">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D126" t="s" s="5">
         <v>68</v>
@@ -6441,10 +6447,10 @@
     </row>
     <row r="127" ht="13.55" customHeight="1">
       <c r="A127" t="s" s="5">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B127" t="s" s="5">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C127" t="s" s="5">
         <v>20</v>
@@ -6471,13 +6477,13 @@
     </row>
     <row r="128" ht="13.55" customHeight="1">
       <c r="A128" t="s" s="5">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B128" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C128" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D128" t="s" s="5">
         <v>157</v>
@@ -6489,7 +6495,7 @@
         <v>15</v>
       </c>
       <c r="G128" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H128" t="s" s="5">
         <v>16</v>
@@ -6501,13 +6507,13 @@
     </row>
     <row r="129" ht="13.55" customHeight="1">
       <c r="A129" t="s" s="5">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B129" t="s" s="5">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C129" t="s" s="5">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s" s="5">
         <v>157</v>
@@ -6519,7 +6525,7 @@
         <v>15</v>
       </c>
       <c r="G129" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H129" t="s" s="5">
         <v>16</v>
@@ -6531,13 +6537,13 @@
     </row>
     <row r="130" ht="13.55" customHeight="1">
       <c r="A130" t="s" s="5">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B130" t="s" s="5">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C130" t="s" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D130" t="s" s="5">
         <v>157</v>
@@ -6561,7 +6567,7 @@
     </row>
     <row r="131" ht="13.55" customHeight="1">
       <c r="A131" t="s" s="5">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B131" t="s" s="5">
         <v>238</v>
@@ -6591,7 +6597,7 @@
     </row>
     <row r="132" ht="13.55" customHeight="1">
       <c r="A132" t="s" s="5">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B132" t="s" s="5">
         <v>238</v>
@@ -6621,13 +6627,13 @@
     </row>
     <row r="133" ht="13.55" customHeight="1">
       <c r="A133" t="s" s="5">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B133" t="s" s="5">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C133" t="s" s="5">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D133" t="s" s="5">
         <v>56</v>
@@ -6651,10 +6657,10 @@
     </row>
     <row r="134" ht="13.55" customHeight="1">
       <c r="A134" t="s" s="5">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B134" t="s" s="5">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C134" t="s" s="5">
         <v>12</v>
@@ -6681,10 +6687,10 @@
     </row>
     <row r="135" ht="13.55" customHeight="1">
       <c r="A135" t="s" s="5">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B135" t="s" s="5">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C135" t="s" s="5">
         <v>12</v>
@@ -6711,10 +6717,10 @@
     </row>
     <row r="136" ht="13.55" customHeight="1">
       <c r="A136" t="s" s="5">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B136" t="s" s="5">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C136" t="s" s="5">
         <v>25</v>
@@ -6741,13 +6747,13 @@
     </row>
     <row r="137" ht="13.55" customHeight="1">
       <c r="A137" t="s" s="5">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B137" t="s" s="5">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C137" t="s" s="5">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D137" t="s" s="5">
         <v>56</v>
@@ -6773,10 +6779,10 @@
     </row>
     <row r="138" ht="13.55" customHeight="1">
       <c r="A138" t="s" s="5">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B138" t="s" s="5">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C138" t="s" s="5">
         <v>25</v>
@@ -6803,10 +6809,10 @@
     </row>
     <row r="139" ht="13.55" customHeight="1">
       <c r="A139" t="s" s="5">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B139" t="s" s="5">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C139" t="s" s="5">
         <v>25</v>
@@ -6833,10 +6839,10 @@
     </row>
     <row r="140" ht="13.55" customHeight="1">
       <c r="A140" t="s" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B140" t="s" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C140" t="s" s="5">
         <v>25</v>
@@ -6865,7 +6871,7 @@
     </row>
     <row r="141" ht="13.55" customHeight="1">
       <c r="A141" t="s" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B141" t="s" s="5">
         <v>210</v>
@@ -6895,13 +6901,13 @@
     </row>
     <row r="142" ht="13.55" customHeight="1">
       <c r="A142" t="s" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B142" t="s" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C142" t="s" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D142" t="s" s="5">
         <v>71</v>
@@ -6925,10 +6931,10 @@
     </row>
     <row r="143" ht="13.55" customHeight="1">
       <c r="A143" t="s" s="5">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B143" t="s" s="5">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s" s="5">
         <v>25</v>
@@ -6955,10 +6961,10 @@
     </row>
     <row r="144" ht="13.55" customHeight="1">
       <c r="A144" t="s" s="5">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B144" t="s" s="5">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C144" t="s" s="5">
         <v>12</v>
@@ -6985,10 +6991,10 @@
     </row>
     <row r="145" ht="13.55" customHeight="1">
       <c r="A145" t="s" s="5">
+        <v>357</v>
+      </c>
+      <c r="B145" t="s" s="5">
         <v>356</v>
-      </c>
-      <c r="B145" t="s" s="5">
-        <v>355</v>
       </c>
       <c r="C145" t="s" s="5">
         <v>12</v>
@@ -7015,16 +7021,16 @@
     </row>
     <row r="146" ht="13.55" customHeight="1">
       <c r="A146" t="s" s="5">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C146" t="s" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D146" t="s" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E146" t="s" s="5">
         <v>14</v>
@@ -7045,13 +7051,13 @@
     </row>
     <row r="147" ht="13.55" customHeight="1">
       <c r="A147" t="s" s="5">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B147" t="s" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C147" t="s" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D147" t="s" s="5">
         <v>71</v>
@@ -7075,16 +7081,16 @@
     </row>
     <row r="148" ht="13.55" customHeight="1">
       <c r="A148" t="s" s="5">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B148" t="s" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C148" t="s" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D148" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E148" t="s" s="5">
         <v>14</v>
@@ -7107,16 +7113,16 @@
     </row>
     <row r="149" ht="13.55" customHeight="1">
       <c r="A149" t="s" s="5">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B149" t="s" s="5">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C149" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D149" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E149" t="s" s="5">
         <v>14</v>
@@ -7139,16 +7145,16 @@
     </row>
     <row r="150" ht="13.55" customHeight="1">
       <c r="A150" t="s" s="5">
+        <v>365</v>
+      </c>
+      <c r="B150" t="s" s="5">
         <v>363</v>
-      </c>
-      <c r="B150" t="s" s="5">
-        <v>362</v>
       </c>
       <c r="C150" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D150" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E150" t="s" s="5">
         <v>14</v>
@@ -7171,16 +7177,16 @@
     </row>
     <row r="151" ht="13.55" customHeight="1">
       <c r="A151" t="s" s="5">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B151" t="s" s="5">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C151" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D151" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E151" t="s" s="5">
         <v>14</v>
@@ -7201,10 +7207,10 @@
     </row>
     <row r="152" ht="13.55" customHeight="1">
       <c r="A152" t="s" s="5">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B152" t="s" s="5">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C152" t="s" s="5">
         <v>25</v>
@@ -7231,16 +7237,16 @@
     </row>
     <row r="153" ht="13.55" customHeight="1">
       <c r="A153" t="s" s="5">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B153" t="s" s="5">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C153" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D153" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E153" t="s" s="5">
         <v>14</v>
@@ -7261,16 +7267,16 @@
     </row>
     <row r="154" ht="13.55" customHeight="1">
       <c r="A154" t="s" s="5">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B154" t="s" s="5">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C154" t="s" s="5">
         <v>63</v>
       </c>
       <c r="D154" t="s" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E154" t="s" s="5">
         <v>14</v>
@@ -7279,7 +7285,7 @@
         <v>48</v>
       </c>
       <c r="G154" t="s" s="5">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H154" t="s" s="5">
         <v>16</v>
@@ -7293,10 +7299,10 @@
     </row>
     <row r="155" ht="13.55" customHeight="1">
       <c r="A155" t="s" s="5">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B155" t="s" s="5">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C155" t="s" s="5">
         <v>25</v>
@@ -7325,10 +7331,10 @@
     </row>
     <row r="156" ht="13.55" customHeight="1">
       <c r="A156" t="s" s="5">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B156" t="s" s="5">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C156" t="s" s="5">
         <v>12</v>
@@ -7355,10 +7361,10 @@
     </row>
     <row r="157" ht="13.55" customHeight="1">
       <c r="A157" t="s" s="5">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B157" t="s" s="5">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C157" t="s" s="5">
         <v>25</v>
@@ -7387,10 +7393,10 @@
     </row>
     <row r="158" ht="13.55" customHeight="1">
       <c r="A158" t="s" s="5">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B158" t="s" s="5">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s" s="5">
         <v>25</v>
@@ -7417,10 +7423,10 @@
     </row>
     <row r="159" ht="13.55" customHeight="1">
       <c r="A159" t="s" s="5">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B159" t="s" s="5">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C159" t="s" s="5">
         <v>12</v>
@@ -7449,10 +7455,10 @@
     </row>
     <row r="160" ht="13.55" customHeight="1">
       <c r="A160" t="s" s="5">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B160" t="s" s="5">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C160" t="s" s="5">
         <v>25</v>
@@ -7479,7 +7485,7 @@
     </row>
     <row r="161" ht="13.55" customHeight="1">
       <c r="A161" t="s" s="5">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B161" t="s" s="5">
         <v>278</v>
@@ -7488,7 +7494,7 @@
         <v>25</v>
       </c>
       <c r="D161" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E161" t="s" s="5">
         <v>27</v>
@@ -7511,16 +7517,16 @@
     </row>
     <row r="162" ht="13.55" customHeight="1">
       <c r="A162" t="s" s="5">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B162" t="s" s="5">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C162" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D162" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E162" t="s" s="5">
         <v>14</v>
@@ -7543,10 +7549,10 @@
     </row>
     <row r="163" ht="13.55" customHeight="1">
       <c r="A163" t="s" s="5">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B163" t="s" s="5">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C163" t="s" s="5">
         <v>25</v>
@@ -7573,16 +7579,16 @@
     </row>
     <row r="164" ht="13.55" customHeight="1">
       <c r="A164" t="s" s="5">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B164" t="s" s="5">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C164" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D164" t="s" s="5">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E164" t="s" s="5">
         <v>27</v>
@@ -7603,13 +7609,13 @@
     </row>
     <row r="165" ht="13.55" customHeight="1">
       <c r="A165" t="s" s="5">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B165" t="s" s="5">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C165" t="s" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D165" t="s" s="5">
         <v>71</v>
@@ -7621,7 +7627,7 @@
         <v>48</v>
       </c>
       <c r="G165" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H165" t="s" s="5">
         <v>16</v>
@@ -7633,16 +7639,16 @@
     </row>
     <row r="166" ht="13.55" customHeight="1">
       <c r="A166" t="s" s="5">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B166" t="s" s="5">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C166" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D166" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E166" t="s" s="5">
         <v>27</v>
@@ -7663,16 +7669,16 @@
     </row>
     <row r="167" ht="13.55" customHeight="1">
       <c r="A167" t="s" s="5">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B167" t="s" s="5">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C167" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D167" t="s" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E167" t="s" s="5">
         <v>14</v>
@@ -7693,10 +7699,10 @@
     </row>
     <row r="168" ht="13.55" customHeight="1">
       <c r="A168" t="s" s="5">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B168" t="s" s="5">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C168" t="s" s="5">
         <v>25</v>
@@ -7723,16 +7729,16 @@
     </row>
     <row r="169" ht="13.55" customHeight="1">
       <c r="A169" t="s" s="5">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B169" t="s" s="5">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C169" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D169" t="s" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E169" t="s" s="5">
         <v>14</v>
@@ -7753,10 +7759,10 @@
     </row>
     <row r="170" ht="13.55" customHeight="1">
       <c r="A170" t="s" s="5">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B170" t="s" s="5">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C170" t="s" s="5">
         <v>12</v>
@@ -7783,13 +7789,13 @@
     </row>
     <row r="171" ht="13.55" customHeight="1">
       <c r="A171" t="s" s="5">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B171" t="s" s="5">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C171" t="s" s="5">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D171" t="s" s="5">
         <v>71</v>
@@ -7813,13 +7819,13 @@
     </row>
     <row r="172" ht="13.55" customHeight="1">
       <c r="A172" t="s" s="5">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B172" t="s" s="5">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C172" t="s" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D172" t="s" s="5">
         <v>71</v>
@@ -7831,7 +7837,7 @@
         <v>48</v>
       </c>
       <c r="G172" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H172" t="s" s="5">
         <v>16</v>
@@ -7843,16 +7849,16 @@
     </row>
     <row r="173" ht="13.55" customHeight="1">
       <c r="A173" t="s" s="5">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B173" t="s" s="5">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C173" t="s" s="5">
         <v>227</v>
       </c>
       <c r="D173" t="s" s="5">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E173" t="s" s="5">
         <v>27</v>
@@ -7861,10 +7867,10 @@
         <v>15</v>
       </c>
       <c r="G173" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H173" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="6">
@@ -7873,10 +7879,10 @@
     </row>
     <row r="174" ht="13.55" customHeight="1">
       <c r="A174" t="s" s="5">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B174" t="s" s="5">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C174" t="s" s="5">
         <v>227</v>
@@ -7891,10 +7897,10 @@
         <v>48</v>
       </c>
       <c r="G174" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H174" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="6">
@@ -7903,10 +7909,10 @@
     </row>
     <row r="175" ht="13.55" customHeight="1">
       <c r="A175" t="s" s="5">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B175" t="s" s="5">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C175" t="s" s="5">
         <v>227</v>
@@ -7921,10 +7927,10 @@
         <v>48</v>
       </c>
       <c r="G175" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H175" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="6">
@@ -7933,10 +7939,10 @@
     </row>
     <row r="176" ht="13.55" customHeight="1">
       <c r="A176" t="s" s="5">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B176" t="s" s="5">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C176" t="s" s="5">
         <v>25</v>
@@ -7965,16 +7971,16 @@
     </row>
     <row r="177" ht="13.55" customHeight="1">
       <c r="A177" t="s" s="5">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B177" t="s" s="5">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C177" t="s" s="5">
         <v>227</v>
       </c>
       <c r="D177" t="s" s="5">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E177" t="s" s="5">
         <v>14</v>
@@ -7983,10 +7989,10 @@
         <v>48</v>
       </c>
       <c r="G177" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H177" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="6">
@@ -7995,16 +8001,16 @@
     </row>
     <row r="178" ht="13.55" customHeight="1">
       <c r="A178" t="s" s="5">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B178" t="s" s="5">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C178" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D178" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E178" t="s" s="5">
         <v>14</v>
@@ -8025,16 +8031,16 @@
     </row>
     <row r="179" ht="13.55" customHeight="1">
       <c r="A179" t="s" s="5">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B179" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C179" t="s" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D179" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E179" t="s" s="5">
         <v>14</v>
@@ -8043,7 +8049,7 @@
         <v>48</v>
       </c>
       <c r="G179" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H179" t="s" s="5">
         <v>16</v>
@@ -8055,10 +8061,10 @@
     </row>
     <row r="180" ht="13.55" customHeight="1">
       <c r="A180" t="s" s="5">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B180" t="s" s="5">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C180" t="s" s="5">
         <v>227</v>
@@ -8073,10 +8079,10 @@
         <v>48</v>
       </c>
       <c r="G180" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H180" t="s" s="5">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="6">
@@ -8085,10 +8091,10 @@
     </row>
     <row r="181" ht="13.55" customHeight="1">
       <c r="A181" t="s" s="5">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B181" t="s" s="5">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C181" t="s" s="5">
         <v>25</v>
@@ -8115,16 +8121,16 @@
     </row>
     <row r="182" ht="13.55" customHeight="1">
       <c r="A182" t="s" s="5">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B182" t="s" s="5">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C182" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D182" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E182" t="s" s="5">
         <v>14</v>
@@ -8147,16 +8153,16 @@
     </row>
     <row r="183" ht="13.55" customHeight="1">
       <c r="A183" t="s" s="5">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s" s="5">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C183" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D183" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E183" t="s" s="5">
         <v>14</v>
@@ -8179,10 +8185,10 @@
     </row>
     <row r="184" ht="13.55" customHeight="1">
       <c r="A184" t="s" s="5">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B184" t="s" s="5">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C184" t="s" s="5">
         <v>25</v>
@@ -8211,16 +8217,16 @@
     </row>
     <row r="185" ht="13.55" customHeight="1">
       <c r="A185" t="s" s="5">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B185" t="s" s="5">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C185" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D185" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E185" t="s" s="5">
         <v>14</v>
@@ -8243,16 +8249,16 @@
     </row>
     <row r="186" ht="13.55" customHeight="1">
       <c r="A186" t="s" s="5">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B186" t="s" s="5">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C186" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D186" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E186" t="s" s="5">
         <v>14</v>
@@ -8275,10 +8281,10 @@
     </row>
     <row r="187" ht="13.55" customHeight="1">
       <c r="A187" t="s" s="5">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B187" t="s" s="5">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C187" t="s" s="5">
         <v>84</v>
@@ -8305,10 +8311,10 @@
     </row>
     <row r="188" ht="13.55" customHeight="1">
       <c r="A188" t="s" s="5">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B188" t="s" s="5">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C188" t="s" s="5">
         <v>84</v>
@@ -8335,10 +8341,10 @@
     </row>
     <row r="189" ht="13.55" customHeight="1">
       <c r="A189" t="s" s="5">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B189" t="s" s="5">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C189" t="s" s="5">
         <v>25</v>
@@ -8367,10 +8373,10 @@
     </row>
     <row r="190" ht="13.55" customHeight="1">
       <c r="A190" t="s" s="5">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B190" t="s" s="5">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C190" t="s" s="5">
         <v>25</v>
@@ -8399,10 +8405,10 @@
     </row>
     <row r="191" ht="13.55" customHeight="1">
       <c r="A191" t="s" s="5">
+        <v>444</v>
+      </c>
+      <c r="B191" t="s" s="5">
         <v>442</v>
-      </c>
-      <c r="B191" t="s" s="5">
-        <v>440</v>
       </c>
       <c r="C191" t="s" s="5">
         <v>25</v>
@@ -8431,16 +8437,16 @@
     </row>
     <row r="192" ht="13.55" customHeight="1">
       <c r="A192" t="s" s="5">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B192" t="s" s="5">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C192" t="s" s="5">
         <v>12</v>
       </c>
       <c r="D192" t="s" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E192" t="s" s="5">
         <v>14</v>
@@ -8461,10 +8467,10 @@
     </row>
     <row r="193" ht="13.55" customHeight="1">
       <c r="A193" t="s" s="5">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B193" t="s" s="5">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C193" t="s" s="5">
         <v>25</v>
@@ -8491,16 +8497,16 @@
     </row>
     <row r="194" ht="13.55" customHeight="1">
       <c r="A194" t="s" s="5">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B194" t="s" s="5">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C194" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D194" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E194" t="s" s="5">
         <v>14</v>
@@ -8521,16 +8527,16 @@
     </row>
     <row r="195" ht="13.55" customHeight="1">
       <c r="A195" t="s" s="5">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B195" t="s" s="5">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C195" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D195" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E195" t="s" s="5">
         <v>14</v>
@@ -8551,16 +8557,16 @@
     </row>
     <row r="196" ht="13.55" customHeight="1">
       <c r="A196" t="s" s="5">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B196" t="s" s="5">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C196" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D196" t="s" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E196" t="s" s="5">
         <v>14</v>
@@ -8583,16 +8589,16 @@
     </row>
     <row r="197" ht="13.55" customHeight="1">
       <c r="A197" t="s" s="5">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B197" t="s" s="5">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C197" t="s" s="5">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D197" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E197" t="s" s="5">
         <v>27</v>
@@ -8613,16 +8619,16 @@
     </row>
     <row r="198" ht="13.55" customHeight="1">
       <c r="A198" t="s" s="5">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B198" t="s" s="5">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C198" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D198" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E198" t="s" s="5">
         <v>27</v>
@@ -8645,10 +8651,10 @@
     </row>
     <row r="199" ht="13.55" customHeight="1">
       <c r="A199" t="s" s="5">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B199" t="s" s="5">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C199" t="s" s="5">
         <v>25</v>
@@ -8675,10 +8681,10 @@
     </row>
     <row r="200" ht="13.55" customHeight="1">
       <c r="A200" t="s" s="5">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B200" t="s" s="5">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C200" t="s" s="5">
         <v>12</v>
@@ -8707,16 +8713,16 @@
     </row>
     <row r="201" ht="13.55" customHeight="1">
       <c r="A201" t="s" s="5">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B201" t="s" s="5">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C201" t="s" s="5">
         <v>25</v>
       </c>
       <c r="D201" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E201" t="s" s="5">
         <v>14</v>
@@ -8739,16 +8745,16 @@
     </row>
     <row r="202" ht="13.55" customHeight="1">
       <c r="A202" t="s" s="5">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B202" t="s" s="5">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C202" t="s" s="5">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D202" t="s" s="5">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E202" t="s" s="5">
         <v>14</v>
@@ -8757,7 +8763,7 @@
         <v>48</v>
       </c>
       <c r="G202" t="s" s="5">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H202" t="s" s="5">
         <v>16</v>

--- a/data/20251011_book_record.xlsx
+++ b/data/20251011_book_record.xlsx
@@ -7370,7 +7370,7 @@
         <v>25</v>
       </c>
       <c r="D157" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E157" t="s" s="5">
         <v>14</v>
@@ -7402,7 +7402,7 @@
         <v>25</v>
       </c>
       <c r="D158" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E158" t="s" s="5">
         <v>14</v>
@@ -8476,7 +8476,7 @@
         <v>25</v>
       </c>
       <c r="D193" t="s" s="5">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="E193" t="s" s="5">
         <v>14</v>

--- a/data/20251011_book_record.xlsx
+++ b/data/20251011_book_record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="466">
   <si>
     <t>title</t>
   </si>
@@ -1403,6 +1403,12 @@
   </si>
   <si>
     <t>Roadside Picnic</t>
+  </si>
+  <si>
+    <t>The Drowned World</t>
+  </si>
+  <si>
+    <t>JG Ballard</t>
   </si>
 </sst>
 </file>
@@ -2613,7 +2619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8773,6 +8779,36 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="203" ht="13.55" customHeight="1">
+      <c r="A203" t="s" s="5">
+        <v>464</v>
+      </c>
+      <c r="B203" t="s" s="5">
+        <v>465</v>
+      </c>
+      <c r="C203" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="D203" t="s" s="5">
+        <v>279</v>
+      </c>
+      <c r="E203" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="F203" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="G203" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="H203" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="I203" s="7"/>
+      <c r="J203" s="6">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
